--- a/Algoritmos/Prestamo_Ejemplo.xlsx
+++ b/Algoritmos/Prestamo_Ejemplo.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2023-12-25</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -504,13 +504,13 @@
         <v>25000</v>
       </c>
       <c r="F2" t="n">
-        <v>298.98</v>
+        <v>298.86</v>
       </c>
       <c r="G2" t="n">
         <v>274.47</v>
       </c>
       <c r="H2" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -525,26 +525,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>0.978042639594854</v>
+        <v>0.978398680016769</v>
       </c>
       <c r="E3" t="n">
-        <v>24701.02</v>
+        <v>24701.14</v>
       </c>
       <c r="F3" t="n">
-        <v>293.17</v>
+        <v>302.15</v>
       </c>
       <c r="G3" t="n">
-        <v>280.28</v>
+        <v>271.19</v>
       </c>
       <c r="H3" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -559,26 +559,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9670694167840513</v>
+        <v>0.967421462583727</v>
       </c>
       <c r="E4" t="n">
-        <v>24407.85</v>
+        <v>24398.99</v>
       </c>
       <c r="F4" t="n">
-        <v>296.5</v>
+        <v>296.48</v>
       </c>
       <c r="G4" t="n">
-        <v>276.95</v>
+        <v>276.85</v>
       </c>
       <c r="H4" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -593,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -603,16 +603,16 @@
         <v>0.9569156275797217</v>
       </c>
       <c r="E5" t="n">
-        <v>24111.36</v>
+        <v>24102.51</v>
       </c>
       <c r="F5" t="n">
-        <v>317.6</v>
+        <v>308.72</v>
       </c>
       <c r="G5" t="n">
-        <v>255.84</v>
+        <v>264.62</v>
       </c>
       <c r="H5" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -627,26 +627,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9461794408661025</v>
+        <v>0.9465238820118106</v>
       </c>
       <c r="E6" t="n">
-        <v>23793.75</v>
+        <v>23793.79</v>
       </c>
       <c r="F6" t="n">
-        <v>303.46</v>
+        <v>312.11</v>
       </c>
       <c r="G6" t="n">
-        <v>269.98</v>
+        <v>261.23</v>
       </c>
       <c r="H6" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -661,26 +661,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9359042862676371</v>
+        <v>0.9362449869114179</v>
       </c>
       <c r="E7" t="n">
-        <v>23490.29</v>
+        <v>23481.68</v>
       </c>
       <c r="F7" t="n">
-        <v>315.55</v>
+        <v>315.53</v>
       </c>
       <c r="G7" t="n">
-        <v>257.9</v>
+        <v>257.8</v>
       </c>
       <c r="H7" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -695,26 +695,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9254038378750659</v>
+        <v>0.9257407160023993</v>
       </c>
       <c r="E8" t="n">
-        <v>23174.74</v>
+        <v>23166.15</v>
       </c>
       <c r="F8" t="n">
-        <v>310.49</v>
+        <v>310.47</v>
       </c>
       <c r="G8" t="n">
-        <v>262.96</v>
+        <v>262.86</v>
       </c>
       <c r="H8" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -729,26 +729,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9153542985493377</v>
+        <v>0.9156875183062926</v>
       </c>
       <c r="E9" t="n">
-        <v>22864.25</v>
+        <v>22855.68</v>
       </c>
       <c r="F9" t="n">
-        <v>322.43</v>
+        <v>322.41</v>
       </c>
       <c r="G9" t="n">
-        <v>251.02</v>
+        <v>250.93</v>
       </c>
       <c r="H9" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -763,26 +763,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9050844122865377</v>
+        <v>0.9054138934594166</v>
       </c>
       <c r="E10" t="n">
-        <v>22541.83</v>
+        <v>22533.27</v>
       </c>
       <c r="F10" t="n">
-        <v>317.67</v>
+        <v>317.65</v>
       </c>
       <c r="G10" t="n">
-        <v>255.78</v>
+        <v>255.68</v>
       </c>
       <c r="H10" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -797,26 +797,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8946040838028074</v>
+        <v>0.8952555343176902</v>
       </c>
       <c r="E11" t="n">
-        <v>22224.16</v>
+        <v>22215.62</v>
       </c>
       <c r="F11" t="n">
-        <v>313.09</v>
+        <v>321.26</v>
       </c>
       <c r="G11" t="n">
-        <v>260.36</v>
+        <v>252.08</v>
       </c>
       <c r="H11" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -831,26 +831,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8852111476488823</v>
+        <v>0.8855333942849016</v>
       </c>
       <c r="E12" t="n">
-        <v>21911.06</v>
+        <v>21894.36</v>
       </c>
       <c r="F12" t="n">
-        <v>340.95</v>
+        <v>332.96</v>
       </c>
       <c r="G12" t="n">
-        <v>232.5</v>
+        <v>240.37</v>
       </c>
       <c r="H12" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -875,16 +875,16 @@
         <v>0.8752794547302778</v>
       </c>
       <c r="E13" t="n">
-        <v>21570.11</v>
+        <v>21561.4</v>
       </c>
       <c r="F13" t="n">
-        <v>328.7</v>
+        <v>320.74</v>
       </c>
       <c r="G13" t="n">
-        <v>244.75</v>
+        <v>252.59</v>
       </c>
       <c r="H13" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -899,26 +899,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8654591911858869</v>
+        <v>0.8660894183957957</v>
       </c>
       <c r="E14" t="n">
-        <v>21241.42</v>
+        <v>21240.66</v>
       </c>
       <c r="F14" t="n">
-        <v>332.42</v>
+        <v>347.95</v>
       </c>
       <c r="G14" t="n">
-        <v>241.02</v>
+        <v>225.38</v>
       </c>
       <c r="H14" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -933,26 +933,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8560606282875454</v>
+        <v>0.8563722631539011</v>
       </c>
       <c r="E15" t="n">
-        <v>20908.99</v>
+        <v>20892.71</v>
       </c>
       <c r="F15" t="n">
-        <v>343.89</v>
+        <v>336.27</v>
       </c>
       <c r="G15" t="n">
-        <v>229.56</v>
+        <v>237.07</v>
       </c>
       <c r="H15" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -967,26 +967,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8464559918090723</v>
+        <v>0.8467641302646522</v>
       </c>
       <c r="E16" t="n">
-        <v>20565.1</v>
+        <v>20556.44</v>
       </c>
       <c r="F16" t="n">
-        <v>340.1</v>
+        <v>340.08</v>
       </c>
       <c r="G16" t="n">
-        <v>233.35</v>
+        <v>233.25</v>
       </c>
       <c r="H16" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1001,26 +1001,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8378734918727501</v>
+        <v>0.8381785060096403</v>
       </c>
       <c r="E17" t="n">
-        <v>20225</v>
+        <v>20216.36</v>
       </c>
       <c r="F17" t="n">
-        <v>366.28</v>
+        <v>366.26</v>
       </c>
       <c r="G17" t="n">
-        <v>207.17</v>
+        <v>207.08</v>
       </c>
       <c r="H17" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1035,26 +1035,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8284729073364833</v>
+        <v>0.828774499344369</v>
       </c>
       <c r="E18" t="n">
-        <v>19858.72</v>
+        <v>19850.1</v>
       </c>
       <c r="F18" t="n">
-        <v>348.11</v>
+        <v>348.1</v>
       </c>
       <c r="G18" t="n">
-        <v>225.33</v>
+        <v>225.24</v>
       </c>
       <c r="H18" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1069,26 +1069,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8194760016377819</v>
+        <v>0.8197743184693398</v>
       </c>
       <c r="E19" t="n">
-        <v>19510.61</v>
+        <v>19502</v>
       </c>
       <c r="F19" t="n">
-        <v>359.24</v>
+        <v>359.23</v>
       </c>
       <c r="G19" t="n">
-        <v>214.2</v>
+        <v>214.11</v>
       </c>
       <c r="H19" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1103,26 +1103,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D20" t="n">
-        <v>0.809986966620594</v>
+        <v>0.8105767989676703</v>
       </c>
       <c r="E20" t="n">
-        <v>19151.36</v>
+        <v>19142.78</v>
       </c>
       <c r="F20" t="n">
-        <v>349.09</v>
+        <v>356.12</v>
       </c>
       <c r="G20" t="n">
-        <v>224.36</v>
+        <v>217.21</v>
       </c>
       <c r="H20" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1137,26 +1137,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D21" t="n">
-        <v>0.801482471726453</v>
+        <v>0.8017742383078256</v>
       </c>
       <c r="E21" t="n">
-        <v>18802.28</v>
+        <v>18786.65</v>
       </c>
       <c r="F21" t="n">
-        <v>373.94</v>
+        <v>367.08</v>
       </c>
       <c r="G21" t="n">
-        <v>199.51</v>
+        <v>206.26</v>
       </c>
       <c r="H21" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1181,16 +1181,16 @@
         <v>0.7924901789723761</v>
       </c>
       <c r="E22" t="n">
-        <v>18428.34</v>
+        <v>18419.57</v>
       </c>
       <c r="F22" t="n">
-        <v>364.34</v>
+        <v>357.55</v>
       </c>
       <c r="G22" t="n">
-        <v>209.1</v>
+        <v>215.79</v>
       </c>
       <c r="H22" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1205,26 +1205,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7835987759218515</v>
+        <v>0.7838840322363481</v>
       </c>
       <c r="E23" t="n">
-        <v>18063.99</v>
+        <v>18062.02</v>
       </c>
       <c r="F23" t="n">
-        <v>368.48</v>
+        <v>375.03</v>
       </c>
       <c r="G23" t="n">
-        <v>204.97</v>
+        <v>198.3</v>
       </c>
       <c r="H23" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1239,26 +1239,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7750891864951409</v>
+        <v>0.7753713450328257</v>
       </c>
       <c r="E24" t="n">
-        <v>17695.51</v>
+        <v>17686.99</v>
       </c>
       <c r="F24" t="n">
-        <v>379.17</v>
+        <v>379.15</v>
       </c>
       <c r="G24" t="n">
-        <v>194.28</v>
+        <v>194.18</v>
       </c>
       <c r="H24" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1273,26 +1273,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-11-22</t>
+          <t>2025-11-24</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7663930151859041</v>
+        <v>0.7666720080246955</v>
       </c>
       <c r="E25" t="n">
-        <v>17316.34</v>
+        <v>17307.84</v>
       </c>
       <c r="F25" t="n">
-        <v>376.96</v>
+        <v>376.95</v>
       </c>
       <c r="G25" t="n">
-        <v>196.49</v>
+        <v>196.39</v>
       </c>
       <c r="H25" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1307,26 +1307,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7580702738811356</v>
+        <v>0.7583462369621171</v>
       </c>
       <c r="E26" t="n">
-        <v>16939.38</v>
+        <v>16930.89</v>
       </c>
       <c r="F26" t="n">
-        <v>387.47</v>
+        <v>387.45</v>
       </c>
       <c r="G26" t="n">
-        <v>185.97</v>
+        <v>185.88</v>
       </c>
       <c r="H26" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1341,26 +1341,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7495650475394806</v>
+        <v>0.7498379144319601</v>
       </c>
       <c r="E27" t="n">
-        <v>16551.91</v>
+        <v>16543.44</v>
       </c>
       <c r="F27" t="n">
-        <v>385.64</v>
+        <v>385.62</v>
       </c>
       <c r="G27" t="n">
-        <v>187.81</v>
+        <v>187.72</v>
       </c>
       <c r="H27" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1375,26 +1375,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7408855389638211</v>
+        <v>0.7414250516650996</v>
       </c>
       <c r="E28" t="n">
-        <v>16166.27</v>
+        <v>16157.82</v>
       </c>
       <c r="F28" t="n">
-        <v>384.06</v>
+        <v>389.99</v>
       </c>
       <c r="G28" t="n">
-        <v>189.39</v>
+        <v>183.34</v>
       </c>
       <c r="H28" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1409,26 +1409,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7333734530993345</v>
+        <v>0.7339074955011891</v>
       </c>
       <c r="E29" t="n">
-        <v>15782.21</v>
+        <v>15767.83</v>
       </c>
       <c r="F29" t="n">
-        <v>411.79</v>
+        <v>411.82</v>
       </c>
       <c r="G29" t="n">
-        <v>161.66</v>
+        <v>161.51</v>
       </c>
       <c r="H29" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1453,16 +1453,16 @@
         <v>0.7256733652653247</v>
       </c>
       <c r="E30" t="n">
-        <v>15370.42</v>
+        <v>15356</v>
       </c>
       <c r="F30" t="n">
-        <v>410.35</v>
+        <v>399.09</v>
       </c>
       <c r="G30" t="n">
-        <v>163.09</v>
+        <v>174.24</v>
       </c>
       <c r="H30" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1477,26 +1477,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-05-22</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7177928241184315</v>
+        <v>0.7175316184717289</v>
       </c>
       <c r="E31" t="n">
-        <v>14960.07</v>
+        <v>14956.91</v>
       </c>
       <c r="F31" t="n">
-        <v>409.2</v>
+        <v>403.62</v>
       </c>
       <c r="G31" t="n">
-        <v>164.24</v>
+        <v>169.71</v>
       </c>
       <c r="H31" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1521,16 +1521,16 @@
         <v>0.7097394936477787</v>
       </c>
       <c r="E32" t="n">
-        <v>14550.86</v>
+        <v>14553.29</v>
       </c>
       <c r="F32" t="n">
-        <v>408.34</v>
+        <v>413.56</v>
       </c>
       <c r="G32" t="n">
-        <v>165.11</v>
+        <v>159.78</v>
       </c>
       <c r="H32" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-07-22</t>
+          <t>2026-07-24</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1555,16 +1555,16 @@
         <v>0.7020319883830354</v>
       </c>
       <c r="E33" t="n">
-        <v>14142.52</v>
+        <v>14139.73</v>
       </c>
       <c r="F33" t="n">
-        <v>418.18</v>
+        <v>418.1</v>
       </c>
       <c r="G33" t="n">
-        <v>155.27</v>
+        <v>155.24</v>
       </c>
       <c r="H33" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-08-22</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1589,16 +1589,16 @@
         <v>0.6941554877919885</v>
       </c>
       <c r="E34" t="n">
-        <v>13724.34</v>
+        <v>13721.64</v>
       </c>
       <c r="F34" t="n">
-        <v>417.72</v>
+        <v>417.64</v>
       </c>
       <c r="G34" t="n">
-        <v>155.73</v>
+        <v>155.7</v>
       </c>
       <c r="H34" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1623,16 +1623,16 @@
         <v>0.6863673581905653</v>
       </c>
       <c r="E35" t="n">
-        <v>13306.62</v>
+        <v>13304</v>
       </c>
       <c r="F35" t="n">
-        <v>422.46</v>
+        <v>422.38</v>
       </c>
       <c r="G35" t="n">
-        <v>150.99</v>
+        <v>150.96</v>
       </c>
       <c r="H35" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-24</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1657,16 +1657,16 @@
         <v>0.6789136655693299</v>
       </c>
       <c r="E36" t="n">
-        <v>12884.16</v>
+        <v>12881.62</v>
       </c>
       <c r="F36" t="n">
-        <v>432</v>
+        <v>431.91</v>
       </c>
       <c r="G36" t="n">
-        <v>141.45</v>
+        <v>141.43</v>
       </c>
       <c r="H36" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1681,26 +1681,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-11-23</t>
+          <t>2026-11-24</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6710522571408226</v>
+        <v>0.671296542736447</v>
       </c>
       <c r="E37" t="n">
-        <v>12452.17</v>
+        <v>12449.71</v>
       </c>
       <c r="F37" t="n">
-        <v>427.57</v>
+        <v>432.07</v>
       </c>
       <c r="G37" t="n">
-        <v>145.88</v>
+        <v>141.27</v>
       </c>
       <c r="H37" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1725,16 +1725,16 @@
         <v>0.6640065135304454</v>
       </c>
       <c r="E38" t="n">
-        <v>12024.6</v>
+        <v>12017.64</v>
       </c>
       <c r="F38" t="n">
-        <v>445.86</v>
+        <v>441.4</v>
       </c>
       <c r="G38" t="n">
-        <v>127.59</v>
+        <v>131.94</v>
       </c>
       <c r="H38" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1749,26 +1749,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2027-01-22</t>
+          <t>2027-01-25</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6565566426088543</v>
+        <v>0.6563177208800948</v>
       </c>
       <c r="E39" t="n">
-        <v>11578.74</v>
+        <v>11576.25</v>
       </c>
       <c r="F39" t="n">
-        <v>442.07</v>
+        <v>437.72</v>
       </c>
       <c r="G39" t="n">
-        <v>131.38</v>
+        <v>135.62</v>
       </c>
       <c r="H39" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2027-02-22</t>
+          <t>2027-02-24</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1793,16 +1793,16 @@
         <v>0.6491903560732858</v>
       </c>
       <c r="E40" t="n">
-        <v>11136.67</v>
+        <v>11138.53</v>
       </c>
       <c r="F40" t="n">
-        <v>447.08</v>
+        <v>451.05</v>
       </c>
       <c r="G40" t="n">
-        <v>126.37</v>
+        <v>122.29</v>
       </c>
       <c r="H40" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2027-03-22</t>
+          <t>2027-03-24</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1827,16 +1827,16 @@
         <v>0.6426079982855503</v>
       </c>
       <c r="E41" t="n">
-        <v>10689.59</v>
+        <v>10687.48</v>
       </c>
       <c r="F41" t="n">
-        <v>463.95</v>
+        <v>463.86</v>
       </c>
       <c r="G41" t="n">
-        <v>109.5</v>
+        <v>109.47</v>
       </c>
       <c r="H41" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2027-04-22</t>
+          <t>2027-04-24</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1861,16 +1861,16 @@
         <v>0.6353982096120091</v>
       </c>
       <c r="E42" t="n">
-        <v>10225.64</v>
+        <v>10223.62</v>
       </c>
       <c r="F42" t="n">
-        <v>457.42</v>
+        <v>457.33</v>
       </c>
       <c r="G42" t="n">
-        <v>116.03</v>
+        <v>116.01</v>
       </c>
       <c r="H42" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2027-05-22</t>
+          <t>2027-05-24</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1895,16 +1895,16 @@
         <v>0.6284980228679649</v>
       </c>
       <c r="E43" t="n">
-        <v>9768.219999999999</v>
+        <v>9766.290000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>466.2</v>
+        <v>466.11</v>
       </c>
       <c r="G43" t="n">
-        <v>107.24</v>
+        <v>107.22</v>
       </c>
       <c r="H43" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2027-06-22</t>
+          <t>2027-06-24</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1929,16 +1929,16 @@
         <v>0.6214465421227736</v>
       </c>
       <c r="E44" t="n">
-        <v>9302.01</v>
+        <v>9300.18</v>
       </c>
       <c r="F44" t="n">
-        <v>467.9</v>
+        <v>467.81</v>
       </c>
       <c r="G44" t="n">
-        <v>105.55</v>
+        <v>105.53</v>
       </c>
       <c r="H44" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2027-07-22</t>
+          <t>2027-07-24</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1963,16 +1963,16 @@
         <v>0.6146978652659312</v>
       </c>
       <c r="E45" t="n">
-        <v>8834.110000000001</v>
+        <v>8832.370000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>476.46</v>
+        <v>476.37</v>
       </c>
       <c r="G45" t="n">
-        <v>96.98999999999999</v>
+        <v>96.97</v>
       </c>
       <c r="H45" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1987,26 +1987,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2027-08-23</t>
+          <t>2027-08-24</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6075800368526018</v>
+        <v>0.6078012164248522</v>
       </c>
       <c r="E46" t="n">
-        <v>8357.65</v>
+        <v>8356.01</v>
       </c>
       <c r="F46" t="n">
-        <v>475.54</v>
+        <v>478.52</v>
       </c>
       <c r="G46" t="n">
-        <v>97.91</v>
+        <v>94.81</v>
       </c>
       <c r="H46" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2027-09-22</t>
+          <t>2027-09-24</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2031,16 +2031,16 @@
         <v>0.6009819450531361</v>
       </c>
       <c r="E47" t="n">
-        <v>7882.12</v>
+        <v>7877.48</v>
       </c>
       <c r="F47" t="n">
-        <v>486.91</v>
+        <v>483.95</v>
       </c>
       <c r="G47" t="n">
-        <v>86.54000000000001</v>
+        <v>89.38</v>
       </c>
       <c r="H47" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2055,26 +2055,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2027-10-22</t>
+          <t>2027-10-25</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5944555060611254</v>
+        <v>0.5942391830084572</v>
       </c>
       <c r="E48" t="n">
-        <v>7395.2</v>
+        <v>7393.53</v>
       </c>
       <c r="F48" t="n">
-        <v>492.26</v>
+        <v>489.44</v>
       </c>
       <c r="G48" t="n">
-        <v>81.19</v>
+        <v>83.89</v>
       </c>
       <c r="H48" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2027-11-22</t>
+          <t>2027-11-24</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2099,16 +2099,16 @@
         <v>0.5877859678886187</v>
       </c>
       <c r="E49" t="n">
-        <v>6902.95</v>
+        <v>6904.09</v>
       </c>
       <c r="F49" t="n">
-        <v>495.12</v>
+        <v>497.54</v>
       </c>
       <c r="G49" t="n">
-        <v>78.33</v>
+        <v>75.8</v>
       </c>
       <c r="H49" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2027-12-22</t>
+          <t>2027-12-24</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2133,16 +2133,16 @@
         <v>0.5814028322697178</v>
       </c>
       <c r="E50" t="n">
-        <v>6407.82</v>
+        <v>6406.56</v>
       </c>
       <c r="F50" t="n">
-        <v>503.1</v>
+        <v>503</v>
       </c>
       <c r="G50" t="n">
-        <v>70.34999999999999</v>
+        <v>70.34</v>
       </c>
       <c r="H50" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2028-01-22</t>
+          <t>2028-01-24</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2167,16 +2167,16 @@
         <v>0.5748797395506007</v>
       </c>
       <c r="E51" t="n">
-        <v>5904.73</v>
+        <v>5903.56</v>
       </c>
       <c r="F51" t="n">
-        <v>506.45</v>
+        <v>506.35</v>
       </c>
       <c r="G51" t="n">
-        <v>67</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2028-02-22</t>
+          <t>2028-02-24</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2201,16 +2201,16 @@
         <v>0.5684298331598956</v>
       </c>
       <c r="E52" t="n">
-        <v>5398.28</v>
+        <v>5397.21</v>
       </c>
       <c r="F52" t="n">
-        <v>512.1900000000001</v>
+        <v>512.09</v>
       </c>
       <c r="G52" t="n">
-        <v>61.25</v>
+        <v>61.24</v>
       </c>
       <c r="H52" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2028-03-22</t>
+          <t>2028-03-24</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2235,16 +2235,16 @@
         <v>0.5624615783446917</v>
       </c>
       <c r="E53" t="n">
-        <v>4886.08</v>
+        <v>4885.12</v>
       </c>
       <c r="F53" t="n">
-        <v>521.6</v>
+        <v>521.5</v>
       </c>
       <c r="G53" t="n">
-        <v>51.85</v>
+        <v>51.84</v>
       </c>
       <c r="H53" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2028-04-22</t>
+          <t>2028-04-24</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2269,16 +2269,16 @@
         <v>0.5561509984457941</v>
       </c>
       <c r="E54" t="n">
-        <v>4364.48</v>
+        <v>4363.62</v>
       </c>
       <c r="F54" t="n">
-        <v>523.9299999999999</v>
+        <v>523.8200000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>49.52</v>
+        <v>49.51</v>
       </c>
       <c r="H54" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2028-05-22</t>
+          <t>2028-05-24</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2303,16 +2303,16 @@
         <v>0.55011140675493</v>
       </c>
       <c r="E55" t="n">
-        <v>3840.56</v>
+        <v>3839.79</v>
       </c>
       <c r="F55" t="n">
-        <v>531.28</v>
+        <v>531.1799999999999</v>
       </c>
       <c r="G55" t="n">
         <v>42.16</v>
       </c>
       <c r="H55" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2028-06-22</t>
+          <t>2028-06-24</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2337,16 +2337,16 @@
         <v>0.5439393905332379</v>
       </c>
       <c r="E56" t="n">
-        <v>3309.27</v>
+        <v>3308.62</v>
       </c>
       <c r="F56" t="n">
-        <v>535.9</v>
+        <v>535.79</v>
       </c>
       <c r="G56" t="n">
-        <v>37.55</v>
+        <v>37.54</v>
       </c>
       <c r="H56" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2028-07-22</t>
+          <t>2028-07-24</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2371,16 +2371,16 @@
         <v>0.5380324123338301</v>
       </c>
       <c r="E57" t="n">
-        <v>2773.37</v>
+        <v>2772.82</v>
       </c>
       <c r="F57" t="n">
-        <v>543</v>
+        <v>542.89</v>
       </c>
       <c r="G57" t="n">
-        <v>30.45</v>
+        <v>30.44</v>
       </c>
       <c r="H57" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2028-08-22</t>
+          <t>2028-08-24</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2405,16 +2405,16 @@
         <v>0.5319959172967441</v>
       </c>
       <c r="E58" t="n">
-        <v>2230.37</v>
+        <v>2229.93</v>
       </c>
       <c r="F58" t="n">
-        <v>548.14</v>
+        <v>548.03</v>
       </c>
       <c r="G58" t="n">
-        <v>25.31</v>
+        <v>25.3</v>
       </c>
       <c r="H58" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2429,26 +2429,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2028-09-22</t>
+          <t>2028-09-25</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5260271491688507</v>
+        <v>0.525835727275144</v>
       </c>
       <c r="E59" t="n">
-        <v>1682.23</v>
+        <v>1681.9</v>
       </c>
       <c r="F59" t="n">
-        <v>554.36</v>
+        <v>553.63</v>
       </c>
       <c r="G59" t="n">
-        <v>19.09</v>
+        <v>19.7</v>
       </c>
       <c r="H59" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2463,26 +2463,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2028-10-23</t>
+          <t>2028-10-24</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5201253480830083</v>
+        <v>0.5203146912065932</v>
       </c>
       <c r="E60" t="n">
-        <v>1127.87</v>
+        <v>1128.27</v>
       </c>
       <c r="F60" t="n">
-        <v>560.65</v>
+        <v>561.36</v>
       </c>
       <c r="G60" t="n">
-        <v>12.8</v>
+        <v>11.97</v>
       </c>
       <c r="H60" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2028-11-22</t>
+          <t>2028-11-24</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2507,16 +2507,16 @@
         <v>0.5144769814716588</v>
       </c>
       <c r="E61" t="n">
-        <v>567.22</v>
+        <v>566.9</v>
       </c>
       <c r="F61" t="n">
-        <v>567.22</v>
+        <v>566.9</v>
       </c>
       <c r="G61" t="n">
-        <v>6.23</v>
+        <v>6.43</v>
       </c>
       <c r="H61" t="n">
-        <v>573.45</v>
+        <v>573.34</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>

--- a/Algoritmos/Prestamo_Ejemplo.xlsx
+++ b/Algoritmos/Prestamo_Ejemplo.xlsx
@@ -495,22 +495,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9891403742729185</v>
+        <v>0.9887804249359229</v>
       </c>
       <c r="E2" t="n">
         <v>25000</v>
       </c>
       <c r="F2" t="n">
-        <v>298.86</v>
+        <v>289.76</v>
       </c>
       <c r="G2" t="n">
-        <v>274.47</v>
+        <v>283.67</v>
       </c>
       <c r="H2" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -529,22 +529,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>0.978398680016769</v>
+        <v>0.978042639594854</v>
       </c>
       <c r="E3" t="n">
-        <v>24701.14</v>
+        <v>24710.24</v>
       </c>
       <c r="F3" t="n">
-        <v>302.15</v>
+        <v>302.14</v>
       </c>
       <c r="G3" t="n">
-        <v>271.19</v>
+        <v>271.29</v>
       </c>
       <c r="H3" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -563,22 +563,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
-        <v>0.967421462583727</v>
+        <v>0.9670694167840513</v>
       </c>
       <c r="E4" t="n">
-        <v>24398.99</v>
+        <v>24408.11</v>
       </c>
       <c r="F4" t="n">
-        <v>296.48</v>
+        <v>296.47</v>
       </c>
       <c r="G4" t="n">
-        <v>276.85</v>
+        <v>276.96</v>
       </c>
       <c r="H4" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9569156275797217</v>
+        <v>0.9565674048656693</v>
       </c>
       <c r="E5" t="n">
-        <v>24102.51</v>
+        <v>24111.63</v>
       </c>
       <c r="F5" t="n">
-        <v>308.72</v>
+        <v>308.71</v>
       </c>
       <c r="G5" t="n">
-        <v>264.62</v>
+        <v>264.72</v>
       </c>
       <c r="H5" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9465238820118106</v>
+        <v>0.9461794408661025</v>
       </c>
       <c r="E6" t="n">
-        <v>23793.79</v>
+        <v>23802.92</v>
       </c>
       <c r="F6" t="n">
-        <v>312.11</v>
+        <v>312.1</v>
       </c>
       <c r="G6" t="n">
-        <v>261.23</v>
+        <v>261.33</v>
       </c>
       <c r="H6" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -665,22 +665,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9362449869114179</v>
+        <v>0.9359042862676371</v>
       </c>
       <c r="E7" t="n">
-        <v>23481.68</v>
+        <v>23490.82</v>
       </c>
       <c r="F7" t="n">
         <v>315.53</v>
       </c>
       <c r="G7" t="n">
-        <v>257.8</v>
+        <v>257.9</v>
       </c>
       <c r="H7" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -699,22 +699,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9257407160023993</v>
+        <v>0.9254038378750659</v>
       </c>
       <c r="E8" t="n">
-        <v>23166.15</v>
+        <v>23175.3</v>
       </c>
       <c r="F8" t="n">
-        <v>310.47</v>
+        <v>310.46</v>
       </c>
       <c r="G8" t="n">
-        <v>262.86</v>
+        <v>262.97</v>
       </c>
       <c r="H8" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -733,22 +733,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9156875183062926</v>
+        <v>0.9153542985493377</v>
       </c>
       <c r="E9" t="n">
-        <v>22855.68</v>
+        <v>22864.84</v>
       </c>
       <c r="F9" t="n">
-        <v>322.41</v>
+        <v>322.4</v>
       </c>
       <c r="G9" t="n">
-        <v>250.93</v>
+        <v>251.03</v>
       </c>
       <c r="H9" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -767,22 +767,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9054138934594166</v>
+        <v>0.9050844122865377</v>
       </c>
       <c r="E10" t="n">
-        <v>22533.27</v>
+        <v>22542.44</v>
       </c>
       <c r="F10" t="n">
-        <v>317.65</v>
+        <v>317.64</v>
       </c>
       <c r="G10" t="n">
-        <v>255.68</v>
+        <v>255.79</v>
       </c>
       <c r="H10" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -801,22 +801,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8952555343176902</v>
+        <v>0.8949297497835627</v>
       </c>
       <c r="E11" t="n">
-        <v>22215.62</v>
+        <v>22224.8</v>
       </c>
       <c r="F11" t="n">
-        <v>321.26</v>
+        <v>321.25</v>
       </c>
       <c r="G11" t="n">
-        <v>252.08</v>
+        <v>252.18</v>
       </c>
       <c r="H11" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -835,22 +835,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8855333942849016</v>
+        <v>0.8852111476488823</v>
       </c>
       <c r="E12" t="n">
-        <v>21894.36</v>
+        <v>21903.55</v>
       </c>
       <c r="F12" t="n">
-        <v>332.96</v>
+        <v>332.95</v>
       </c>
       <c r="G12" t="n">
-        <v>240.37</v>
+        <v>240.48</v>
       </c>
       <c r="H12" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -869,22 +869,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8752794547302778</v>
+        <v>0.8749609395148337</v>
       </c>
       <c r="E13" t="n">
-        <v>21561.4</v>
+        <v>21570.6</v>
       </c>
       <c r="F13" t="n">
-        <v>320.74</v>
+        <v>320.73</v>
       </c>
       <c r="G13" t="n">
-        <v>252.59</v>
+        <v>252.7</v>
       </c>
       <c r="H13" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8660894183957957</v>
+        <v>0.8657742474453028</v>
       </c>
       <c r="E14" t="n">
-        <v>21240.66</v>
+        <v>21249.87</v>
       </c>
       <c r="F14" t="n">
         <v>347.95</v>
       </c>
       <c r="G14" t="n">
-        <v>225.38</v>
+        <v>225.48</v>
       </c>
       <c r="H14" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8563722631539011</v>
+        <v>0.8560606282875454</v>
       </c>
       <c r="E15" t="n">
-        <v>20892.71</v>
+        <v>20901.92</v>
       </c>
       <c r="F15" t="n">
-        <v>336.27</v>
+        <v>336.26</v>
       </c>
       <c r="G15" t="n">
-        <v>237.07</v>
+        <v>237.17</v>
       </c>
       <c r="H15" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8467641302646522</v>
+        <v>0.8464559918090723</v>
       </c>
       <c r="E16" t="n">
-        <v>20556.44</v>
+        <v>20565.67</v>
       </c>
       <c r="F16" t="n">
-        <v>340.08</v>
+        <v>340.07</v>
       </c>
       <c r="G16" t="n">
-        <v>233.25</v>
+        <v>233.36</v>
       </c>
       <c r="H16" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1005,22 +1005,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8381785060096403</v>
+        <v>0.8378734918727501</v>
       </c>
       <c r="E17" t="n">
-        <v>20216.36</v>
+        <v>20225.6</v>
       </c>
       <c r="F17" t="n">
-        <v>366.26</v>
+        <v>366.25</v>
       </c>
       <c r="G17" t="n">
-        <v>207.08</v>
+        <v>207.17</v>
       </c>
       <c r="H17" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1039,22 +1039,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D18" t="n">
-        <v>0.828774499344369</v>
+        <v>0.8284729073364833</v>
       </c>
       <c r="E18" t="n">
-        <v>19850.1</v>
+        <v>19859.34</v>
       </c>
       <c r="F18" t="n">
-        <v>348.1</v>
+        <v>348.09</v>
       </c>
       <c r="G18" t="n">
-        <v>225.24</v>
+        <v>225.34</v>
       </c>
       <c r="H18" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1073,22 +1073,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8197743184693398</v>
+        <v>0.8194760016377819</v>
       </c>
       <c r="E19" t="n">
-        <v>19502</v>
+        <v>19511.26</v>
       </c>
       <c r="F19" t="n">
-        <v>359.23</v>
+        <v>359.22</v>
       </c>
       <c r="G19" t="n">
-        <v>214.11</v>
+        <v>214.21</v>
       </c>
       <c r="H19" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8105767989676703</v>
+        <v>0.810281829124197</v>
       </c>
       <c r="E20" t="n">
-        <v>19142.78</v>
+        <v>19152.04</v>
       </c>
       <c r="F20" t="n">
-        <v>356.12</v>
+        <v>356.11</v>
       </c>
       <c r="G20" t="n">
-        <v>217.21</v>
+        <v>217.32</v>
       </c>
       <c r="H20" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8017742383078256</v>
+        <v>0.801482471726453</v>
       </c>
       <c r="E21" t="n">
-        <v>18786.65</v>
+        <v>18795.93</v>
       </c>
       <c r="F21" t="n">
-        <v>367.08</v>
+        <v>367.07</v>
       </c>
       <c r="G21" t="n">
-        <v>206.26</v>
+        <v>206.36</v>
       </c>
       <c r="H21" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7924901789723761</v>
+        <v>0.7922017908710347</v>
       </c>
       <c r="E22" t="n">
-        <v>18419.57</v>
+        <v>18428.86</v>
       </c>
       <c r="F22" t="n">
-        <v>357.55</v>
+        <v>357.53</v>
       </c>
       <c r="G22" t="n">
-        <v>215.79</v>
+        <v>215.89</v>
       </c>
       <c r="H22" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7838840322363481</v>
+        <v>0.7835987759218515</v>
       </c>
       <c r="E23" t="n">
-        <v>18062.02</v>
+        <v>18071.32</v>
       </c>
       <c r="F23" t="n">
         <v>375.03</v>
       </c>
       <c r="G23" t="n">
-        <v>198.3</v>
+        <v>198.4</v>
       </c>
       <c r="H23" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1249,16 +1249,16 @@
         <v>0.7753713450328257</v>
       </c>
       <c r="E24" t="n">
-        <v>17686.99</v>
+        <v>17696.3</v>
       </c>
       <c r="F24" t="n">
-        <v>379.15</v>
+        <v>385.65</v>
       </c>
       <c r="G24" t="n">
-        <v>194.18</v>
+        <v>187.77</v>
       </c>
       <c r="H24" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0.7666720080246955</v>
       </c>
       <c r="E25" t="n">
-        <v>17307.84</v>
+        <v>17310.64</v>
       </c>
       <c r="F25" t="n">
-        <v>376.95</v>
+        <v>377.01</v>
       </c>
       <c r="G25" t="n">
-        <v>196.39</v>
+        <v>196.42</v>
       </c>
       <c r="H25" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1317,16 +1317,16 @@
         <v>0.7583462369621171</v>
       </c>
       <c r="E26" t="n">
-        <v>16930.89</v>
+        <v>16933.64</v>
       </c>
       <c r="F26" t="n">
-        <v>387.45</v>
+        <v>387.52</v>
       </c>
       <c r="G26" t="n">
-        <v>185.88</v>
+        <v>185.91</v>
       </c>
       <c r="H26" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1351,16 +1351,16 @@
         <v>0.7498379144319601</v>
       </c>
       <c r="E27" t="n">
-        <v>16543.44</v>
+        <v>16546.12</v>
       </c>
       <c r="F27" t="n">
-        <v>385.62</v>
+        <v>385.68</v>
       </c>
       <c r="G27" t="n">
-        <v>187.72</v>
+        <v>187.75</v>
       </c>
       <c r="H27" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0.7414250516650996</v>
       </c>
       <c r="E28" t="n">
-        <v>16157.82</v>
+        <v>16160.44</v>
       </c>
       <c r="F28" t="n">
-        <v>389.99</v>
+        <v>390.06</v>
       </c>
       <c r="G28" t="n">
-        <v>183.34</v>
+        <v>183.37</v>
       </c>
       <c r="H28" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1419,16 +1419,16 @@
         <v>0.7339074955011891</v>
       </c>
       <c r="E29" t="n">
-        <v>15767.83</v>
+        <v>15770.38</v>
       </c>
       <c r="F29" t="n">
-        <v>411.82</v>
+        <v>411.89</v>
       </c>
       <c r="G29" t="n">
-        <v>161.51</v>
+        <v>161.54</v>
       </c>
       <c r="H29" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1453,16 +1453,16 @@
         <v>0.7256733652653247</v>
       </c>
       <c r="E30" t="n">
-        <v>15356</v>
+        <v>15358.49</v>
       </c>
       <c r="F30" t="n">
-        <v>399.09</v>
+        <v>399.16</v>
       </c>
       <c r="G30" t="n">
-        <v>174.24</v>
+        <v>174.27</v>
       </c>
       <c r="H30" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1487,16 +1487,16 @@
         <v>0.7175316184717289</v>
       </c>
       <c r="E31" t="n">
-        <v>14956.91</v>
+        <v>14959.34</v>
       </c>
       <c r="F31" t="n">
-        <v>403.62</v>
+        <v>403.69</v>
       </c>
       <c r="G31" t="n">
-        <v>169.71</v>
+        <v>169.74</v>
       </c>
       <c r="H31" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1521,16 +1521,16 @@
         <v>0.7097394936477787</v>
       </c>
       <c r="E32" t="n">
-        <v>14553.29</v>
+        <v>14555.65</v>
       </c>
       <c r="F32" t="n">
-        <v>413.56</v>
+        <v>413.62</v>
       </c>
       <c r="G32" t="n">
-        <v>159.78</v>
+        <v>159.8</v>
       </c>
       <c r="H32" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1555,16 +1555,16 @@
         <v>0.7020319883830354</v>
       </c>
       <c r="E33" t="n">
-        <v>14139.73</v>
+        <v>14142.03</v>
       </c>
       <c r="F33" t="n">
-        <v>418.1</v>
+        <v>418.16</v>
       </c>
       <c r="G33" t="n">
-        <v>155.24</v>
+        <v>155.26</v>
       </c>
       <c r="H33" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>0.6941554877919885</v>
       </c>
       <c r="E34" t="n">
-        <v>13721.64</v>
+        <v>13723.86</v>
       </c>
       <c r="F34" t="n">
-        <v>417.64</v>
+        <v>417.71</v>
       </c>
       <c r="G34" t="n">
-        <v>155.7</v>
+        <v>155.72</v>
       </c>
       <c r="H34" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1623,16 +1623,16 @@
         <v>0.6863673581905653</v>
       </c>
       <c r="E35" t="n">
-        <v>13304</v>
+        <v>13306.16</v>
       </c>
       <c r="F35" t="n">
-        <v>422.38</v>
+        <v>422.44</v>
       </c>
       <c r="G35" t="n">
-        <v>150.96</v>
+        <v>150.98</v>
       </c>
       <c r="H35" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0.6789136655693299</v>
       </c>
       <c r="E36" t="n">
-        <v>12881.62</v>
+        <v>12883.71</v>
       </c>
       <c r="F36" t="n">
-        <v>431.91</v>
+        <v>431.98</v>
       </c>
       <c r="G36" t="n">
-        <v>141.43</v>
+        <v>141.45</v>
       </c>
       <c r="H36" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>0.671296542736447</v>
       </c>
       <c r="E37" t="n">
-        <v>12449.71</v>
+        <v>12451.73</v>
       </c>
       <c r="F37" t="n">
-        <v>432.07</v>
+        <v>432.14</v>
       </c>
       <c r="G37" t="n">
-        <v>141.27</v>
+        <v>141.29</v>
       </c>
       <c r="H37" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1725,16 +1725,16 @@
         <v>0.6640065135304454</v>
       </c>
       <c r="E38" t="n">
-        <v>12017.64</v>
+        <v>12019.59</v>
       </c>
       <c r="F38" t="n">
-        <v>441.4</v>
+        <v>441.47</v>
       </c>
       <c r="G38" t="n">
-        <v>131.94</v>
+        <v>131.96</v>
       </c>
       <c r="H38" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1759,16 +1759,16 @@
         <v>0.6563177208800948</v>
       </c>
       <c r="E39" t="n">
-        <v>11576.25</v>
+        <v>11578.12</v>
       </c>
       <c r="F39" t="n">
-        <v>437.72</v>
+        <v>437.79</v>
       </c>
       <c r="G39" t="n">
-        <v>135.62</v>
+        <v>135.64</v>
       </c>
       <c r="H39" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1793,16 +1793,16 @@
         <v>0.6491903560732858</v>
       </c>
       <c r="E40" t="n">
-        <v>11138.53</v>
+        <v>11140.33</v>
       </c>
       <c r="F40" t="n">
-        <v>451.05</v>
+        <v>451.12</v>
       </c>
       <c r="G40" t="n">
-        <v>122.29</v>
+        <v>122.31</v>
       </c>
       <c r="H40" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1827,16 +1827,16 @@
         <v>0.6426079982855503</v>
       </c>
       <c r="E41" t="n">
-        <v>10687.48</v>
+        <v>10689.21</v>
       </c>
       <c r="F41" t="n">
-        <v>463.86</v>
+        <v>463.94</v>
       </c>
       <c r="G41" t="n">
-        <v>109.47</v>
+        <v>109.49</v>
       </c>
       <c r="H41" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1861,16 +1861,16 @@
         <v>0.6353982096120091</v>
       </c>
       <c r="E42" t="n">
-        <v>10223.62</v>
+        <v>10225.28</v>
       </c>
       <c r="F42" t="n">
-        <v>457.33</v>
+        <v>457.4</v>
       </c>
       <c r="G42" t="n">
-        <v>116.01</v>
+        <v>116.03</v>
       </c>
       <c r="H42" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1895,16 +1895,16 @@
         <v>0.6284980228679649</v>
       </c>
       <c r="E43" t="n">
-        <v>9766.290000000001</v>
+        <v>9767.870000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>466.11</v>
+        <v>466.19</v>
       </c>
       <c r="G43" t="n">
-        <v>107.22</v>
+        <v>107.24</v>
       </c>
       <c r="H43" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1929,16 +1929,16 @@
         <v>0.6214465421227736</v>
       </c>
       <c r="E44" t="n">
-        <v>9300.18</v>
+        <v>9301.690000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>467.81</v>
+        <v>467.88</v>
       </c>
       <c r="G44" t="n">
-        <v>105.53</v>
+        <v>105.55</v>
       </c>
       <c r="H44" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1963,16 +1963,16 @@
         <v>0.6146978652659312</v>
       </c>
       <c r="E45" t="n">
-        <v>8832.370000000001</v>
+        <v>8833.799999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>476.37</v>
+        <v>476.44</v>
       </c>
       <c r="G45" t="n">
-        <v>96.97</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1997,16 +1997,16 @@
         <v>0.6078012164248522</v>
       </c>
       <c r="E46" t="n">
-        <v>8356.01</v>
+        <v>8357.360000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>478.52</v>
+        <v>478.6</v>
       </c>
       <c r="G46" t="n">
-        <v>94.81</v>
+        <v>94.83</v>
       </c>
       <c r="H46" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2031,16 +2031,16 @@
         <v>0.6009819450531361</v>
       </c>
       <c r="E47" t="n">
-        <v>7877.48</v>
+        <v>7878.76</v>
       </c>
       <c r="F47" t="n">
-        <v>483.95</v>
+        <v>484.03</v>
       </c>
       <c r="G47" t="n">
-        <v>89.38</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2065,16 +2065,16 @@
         <v>0.5942391830084572</v>
       </c>
       <c r="E48" t="n">
-        <v>7393.53</v>
+        <v>7394.73</v>
       </c>
       <c r="F48" t="n">
-        <v>489.44</v>
+        <v>489.52</v>
       </c>
       <c r="G48" t="n">
-        <v>83.89</v>
+        <v>83.91</v>
       </c>
       <c r="H48" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2099,16 +2099,16 @@
         <v>0.5877859678886187</v>
       </c>
       <c r="E49" t="n">
-        <v>6904.09</v>
+        <v>6905.21</v>
       </c>
       <c r="F49" t="n">
-        <v>497.54</v>
+        <v>497.62</v>
       </c>
       <c r="G49" t="n">
-        <v>75.8</v>
+        <v>75.81</v>
       </c>
       <c r="H49" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2133,16 +2133,16 @@
         <v>0.5814028322697178</v>
       </c>
       <c r="E50" t="n">
-        <v>6406.56</v>
+        <v>6407.59</v>
       </c>
       <c r="F50" t="n">
-        <v>503</v>
+        <v>503.08</v>
       </c>
       <c r="G50" t="n">
-        <v>70.34</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2167,16 +2167,16 @@
         <v>0.5748797395506007</v>
       </c>
       <c r="E51" t="n">
-        <v>5903.56</v>
+        <v>5904.51</v>
       </c>
       <c r="F51" t="n">
-        <v>506.35</v>
+        <v>506.43</v>
       </c>
       <c r="G51" t="n">
-        <v>66.98999999999999</v>
+        <v>67</v>
       </c>
       <c r="H51" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2201,16 +2201,16 @@
         <v>0.5684298331598956</v>
       </c>
       <c r="E52" t="n">
-        <v>5397.21</v>
+        <v>5398.08</v>
       </c>
       <c r="F52" t="n">
-        <v>512.09</v>
+        <v>512.1799999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>61.24</v>
+        <v>61.25</v>
       </c>
       <c r="H52" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2235,16 +2235,16 @@
         <v>0.5624615783446917</v>
       </c>
       <c r="E53" t="n">
-        <v>4885.12</v>
+        <v>4885.91</v>
       </c>
       <c r="F53" t="n">
-        <v>521.5</v>
+        <v>521.58</v>
       </c>
       <c r="G53" t="n">
         <v>51.84</v>
       </c>
       <c r="H53" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2269,16 +2269,16 @@
         <v>0.5561509984457941</v>
       </c>
       <c r="E54" t="n">
-        <v>4363.62</v>
+        <v>4364.32</v>
       </c>
       <c r="F54" t="n">
-        <v>523.8200000000001</v>
+        <v>523.91</v>
       </c>
       <c r="G54" t="n">
-        <v>49.51</v>
+        <v>49.52</v>
       </c>
       <c r="H54" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2303,16 +2303,16 @@
         <v>0.55011140675493</v>
       </c>
       <c r="E55" t="n">
-        <v>3839.79</v>
+        <v>3840.42</v>
       </c>
       <c r="F55" t="n">
-        <v>531.1799999999999</v>
+        <v>531.26</v>
       </c>
       <c r="G55" t="n">
         <v>42.16</v>
       </c>
       <c r="H55" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2337,16 +2337,16 @@
         <v>0.5439393905332379</v>
       </c>
       <c r="E56" t="n">
-        <v>3308.62</v>
+        <v>3309.15</v>
       </c>
       <c r="F56" t="n">
-        <v>535.79</v>
+        <v>535.88</v>
       </c>
       <c r="G56" t="n">
-        <v>37.54</v>
+        <v>37.55</v>
       </c>
       <c r="H56" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0.5380324123338301</v>
       </c>
       <c r="E57" t="n">
-        <v>2772.82</v>
+        <v>2773.27</v>
       </c>
       <c r="F57" t="n">
-        <v>542.89</v>
+        <v>542.98</v>
       </c>
       <c r="G57" t="n">
-        <v>30.44</v>
+        <v>30.45</v>
       </c>
       <c r="H57" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2405,16 +2405,16 @@
         <v>0.5319959172967441</v>
       </c>
       <c r="E58" t="n">
-        <v>2229.93</v>
+        <v>2230.29</v>
       </c>
       <c r="F58" t="n">
-        <v>548.03</v>
+        <v>548.12</v>
       </c>
       <c r="G58" t="n">
-        <v>25.3</v>
+        <v>25.31</v>
       </c>
       <c r="H58" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2439,16 +2439,16 @@
         <v>0.525835727275144</v>
       </c>
       <c r="E59" t="n">
-        <v>1681.9</v>
+        <v>1682.17</v>
       </c>
       <c r="F59" t="n">
-        <v>553.63</v>
+        <v>553.72</v>
       </c>
       <c r="G59" t="n">
-        <v>19.7</v>
+        <v>19.71</v>
       </c>
       <c r="H59" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         <v>0.5203146912065932</v>
       </c>
       <c r="E60" t="n">
-        <v>1128.27</v>
+        <v>1128.45</v>
       </c>
       <c r="F60" t="n">
-        <v>561.36</v>
+        <v>561.45</v>
       </c>
       <c r="G60" t="n">
         <v>11.97</v>
       </c>
       <c r="H60" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2507,16 +2507,16 @@
         <v>0.5144769814716588</v>
       </c>
       <c r="E61" t="n">
-        <v>566.9</v>
+        <v>566.99</v>
       </c>
       <c r="F61" t="n">
-        <v>566.9</v>
+        <v>566.99</v>
       </c>
       <c r="G61" t="n">
         <v>6.43</v>
       </c>
       <c r="H61" t="n">
-        <v>573.34</v>
+        <v>573.4299999999999</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>

--- a/Algoritmos/Prestamo_Ejemplo.xlsx
+++ b/Algoritmos/Prestamo_Ejemplo.xlsx
@@ -491,26 +491,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-12-25</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9887804249359229</v>
+        <v>0.9895004546435813</v>
       </c>
       <c r="E2" t="n">
         <v>25000</v>
       </c>
       <c r="F2" t="n">
-        <v>289.76</v>
+        <v>308.06</v>
       </c>
       <c r="G2" t="n">
-        <v>283.67</v>
+        <v>265.27</v>
       </c>
       <c r="H2" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -525,26 +525,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>0.978042639594854</v>
+        <v>0.978398680016769</v>
       </c>
       <c r="E3" t="n">
-        <v>24710.24</v>
+        <v>24691.94</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14</v>
+        <v>293.16</v>
       </c>
       <c r="G3" t="n">
-        <v>271.29</v>
+        <v>280.18</v>
       </c>
       <c r="H3" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -559,26 +559,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9670694167840513</v>
+        <v>0.967421462583727</v>
       </c>
       <c r="E4" t="n">
-        <v>24408.11</v>
+        <v>24398.78</v>
       </c>
       <c r="F4" t="n">
-        <v>296.47</v>
+        <v>296.48</v>
       </c>
       <c r="G4" t="n">
-        <v>276.96</v>
+        <v>276.85</v>
       </c>
       <c r="H4" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -593,26 +593,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9565674048656693</v>
+        <v>0.9572639770585561</v>
       </c>
       <c r="E5" t="n">
-        <v>24111.63</v>
+        <v>24102.3</v>
       </c>
       <c r="F5" t="n">
-        <v>308.71</v>
+        <v>317.58</v>
       </c>
       <c r="G5" t="n">
-        <v>264.72</v>
+        <v>255.75</v>
       </c>
       <c r="H5" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -627,26 +627,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9461794408661025</v>
+        <v>0.9465238820118106</v>
       </c>
       <c r="E6" t="n">
-        <v>23802.92</v>
+        <v>23784.72</v>
       </c>
       <c r="F6" t="n">
-        <v>312.1</v>
+        <v>303.45</v>
       </c>
       <c r="G6" t="n">
-        <v>261.33</v>
+        <v>269.88</v>
       </c>
       <c r="H6" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -661,26 +661,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9359042862676371</v>
+        <v>0.9362449869114179</v>
       </c>
       <c r="E7" t="n">
-        <v>23490.82</v>
+        <v>23481.27</v>
       </c>
       <c r="F7" t="n">
-        <v>315.53</v>
+        <v>315.54</v>
       </c>
       <c r="G7" t="n">
-        <v>257.9</v>
+        <v>257.8</v>
       </c>
       <c r="H7" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -695,26 +695,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9254038378750659</v>
+        <v>0.9257407160023993</v>
       </c>
       <c r="E8" t="n">
-        <v>23175.3</v>
+        <v>23165.73</v>
       </c>
       <c r="F8" t="n">
-        <v>310.46</v>
+        <v>310.47</v>
       </c>
       <c r="G8" t="n">
-        <v>262.97</v>
+        <v>262.86</v>
       </c>
       <c r="H8" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -729,26 +729,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9153542985493377</v>
+        <v>0.9156875183062926</v>
       </c>
       <c r="E9" t="n">
-        <v>22864.84</v>
+        <v>22855.26</v>
       </c>
       <c r="F9" t="n">
-        <v>322.4</v>
+        <v>322.41</v>
       </c>
       <c r="G9" t="n">
-        <v>251.03</v>
+        <v>250.92</v>
       </c>
       <c r="H9" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -763,26 +763,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9050844122865377</v>
+        <v>0.9054138934594166</v>
       </c>
       <c r="E10" t="n">
-        <v>22542.44</v>
+        <v>22532.85</v>
       </c>
       <c r="F10" t="n">
-        <v>317.64</v>
+        <v>317.66</v>
       </c>
       <c r="G10" t="n">
-        <v>255.79</v>
+        <v>255.68</v>
       </c>
       <c r="H10" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -797,26 +797,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8949297497835627</v>
+        <v>0.8952555343176902</v>
       </c>
       <c r="E11" t="n">
-        <v>22224.8</v>
+        <v>22215.2</v>
       </c>
       <c r="F11" t="n">
-        <v>321.25</v>
+        <v>321.26</v>
       </c>
       <c r="G11" t="n">
-        <v>252.18</v>
+        <v>252.07</v>
       </c>
       <c r="H11" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -841,16 +841,16 @@
         <v>0.8852111476488823</v>
       </c>
       <c r="E12" t="n">
-        <v>21903.55</v>
+        <v>21893.94</v>
       </c>
       <c r="F12" t="n">
-        <v>332.95</v>
+        <v>324.9</v>
       </c>
       <c r="G12" t="n">
-        <v>240.48</v>
+        <v>248.43</v>
       </c>
       <c r="H12" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -865,26 +865,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8749609395148337</v>
+        <v>0.8755980858959752</v>
       </c>
       <c r="E13" t="n">
-        <v>21570.6</v>
+        <v>21569.03</v>
       </c>
       <c r="F13" t="n">
-        <v>320.73</v>
+        <v>336.53</v>
       </c>
       <c r="G13" t="n">
-        <v>252.7</v>
+        <v>236.8</v>
       </c>
       <c r="H13" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -899,26 +899,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8657742474453028</v>
+        <v>0.8660894183957957</v>
       </c>
       <c r="E14" t="n">
-        <v>21249.87</v>
+        <v>21232.5</v>
       </c>
       <c r="F14" t="n">
-        <v>347.95</v>
+        <v>340.22</v>
       </c>
       <c r="G14" t="n">
-        <v>225.48</v>
+        <v>233.11</v>
       </c>
       <c r="H14" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -933,26 +933,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8560606282875454</v>
+        <v>0.8563722631539011</v>
       </c>
       <c r="E15" t="n">
-        <v>20901.92</v>
+        <v>20892.28</v>
       </c>
       <c r="F15" t="n">
-        <v>336.26</v>
+        <v>336.27</v>
       </c>
       <c r="G15" t="n">
-        <v>237.17</v>
+        <v>237.06</v>
       </c>
       <c r="H15" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -967,26 +967,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8464559918090723</v>
+        <v>0.8467641302646522</v>
       </c>
       <c r="E16" t="n">
-        <v>20565.67</v>
+        <v>20556.01</v>
       </c>
       <c r="F16" t="n">
-        <v>340.07</v>
+        <v>340.09</v>
       </c>
       <c r="G16" t="n">
-        <v>233.36</v>
+        <v>233.25</v>
       </c>
       <c r="H16" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1001,26 +1001,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8378734918727501</v>
+        <v>0.8381785060096403</v>
       </c>
       <c r="E17" t="n">
-        <v>20225.6</v>
+        <v>20215.92</v>
       </c>
       <c r="F17" t="n">
-        <v>366.25</v>
+        <v>366.26</v>
       </c>
       <c r="G17" t="n">
-        <v>207.17</v>
+        <v>207.08</v>
       </c>
       <c r="H17" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1045,16 +1045,16 @@
         <v>0.8284729073364833</v>
       </c>
       <c r="E18" t="n">
-        <v>19859.34</v>
+        <v>19849.66</v>
       </c>
       <c r="F18" t="n">
-        <v>348.09</v>
+        <v>340.79</v>
       </c>
       <c r="G18" t="n">
-        <v>225.34</v>
+        <v>232.54</v>
       </c>
       <c r="H18" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1069,26 +1069,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8194760016377819</v>
+        <v>0.8197743184693398</v>
       </c>
       <c r="E19" t="n">
-        <v>19511.26</v>
+        <v>19508.87</v>
       </c>
       <c r="F19" t="n">
-        <v>359.22</v>
+        <v>366.32</v>
       </c>
       <c r="G19" t="n">
-        <v>214.21</v>
+        <v>207.01</v>
       </c>
       <c r="H19" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1103,26 +1103,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D20" t="n">
-        <v>0.810281829124197</v>
+        <v>0.8105767989676703</v>
       </c>
       <c r="E20" t="n">
-        <v>19152.04</v>
+        <v>19142.55</v>
       </c>
       <c r="F20" t="n">
-        <v>356.11</v>
+        <v>356.12</v>
       </c>
       <c r="G20" t="n">
-        <v>217.32</v>
+        <v>217.21</v>
       </c>
       <c r="H20" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1147,16 +1147,16 @@
         <v>0.801482471726453</v>
       </c>
       <c r="E21" t="n">
-        <v>18795.93</v>
+        <v>18786.42</v>
       </c>
       <c r="F21" t="n">
-        <v>367.07</v>
+        <v>360.17</v>
       </c>
       <c r="G21" t="n">
-        <v>206.36</v>
+        <v>213.17</v>
       </c>
       <c r="H21" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1171,26 +1171,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7922017908710347</v>
+        <v>0.7927786720566875</v>
       </c>
       <c r="E22" t="n">
-        <v>18428.86</v>
+        <v>18426.26</v>
       </c>
       <c r="F22" t="n">
-        <v>357.53</v>
+        <v>371.03</v>
       </c>
       <c r="G22" t="n">
-        <v>215.89</v>
+        <v>202.3</v>
       </c>
       <c r="H22" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1205,26 +1205,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7835987759218515</v>
+        <v>0.7838840322363481</v>
       </c>
       <c r="E23" t="n">
-        <v>18071.32</v>
+        <v>18055.22</v>
       </c>
       <c r="F23" t="n">
-        <v>375.03</v>
+        <v>368.46</v>
       </c>
       <c r="G23" t="n">
-        <v>198.4</v>
+        <v>204.87</v>
       </c>
       <c r="H23" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1249,16 +1249,16 @@
         <v>0.7753713450328257</v>
       </c>
       <c r="E24" t="n">
-        <v>17696.3</v>
+        <v>17686.76</v>
       </c>
       <c r="F24" t="n">
-        <v>385.65</v>
+        <v>379.15</v>
       </c>
       <c r="G24" t="n">
-        <v>187.77</v>
+        <v>194.18</v>
       </c>
       <c r="H24" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-11-27</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1283,16 +1283,16 @@
         <v>0.7666720080246955</v>
       </c>
       <c r="E25" t="n">
-        <v>17310.64</v>
+        <v>17307.61</v>
       </c>
       <c r="F25" t="n">
-        <v>377.01</v>
+        <v>376.95</v>
       </c>
       <c r="G25" t="n">
-        <v>196.42</v>
+        <v>196.39</v>
       </c>
       <c r="H25" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1317,16 +1317,16 @@
         <v>0.7583462369621171</v>
       </c>
       <c r="E26" t="n">
-        <v>16933.64</v>
+        <v>16930.66</v>
       </c>
       <c r="F26" t="n">
-        <v>387.52</v>
+        <v>387.45</v>
       </c>
       <c r="G26" t="n">
-        <v>185.91</v>
+        <v>185.88</v>
       </c>
       <c r="H26" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1351,16 +1351,16 @@
         <v>0.7498379144319601</v>
       </c>
       <c r="E27" t="n">
-        <v>16546.12</v>
+        <v>16543.21</v>
       </c>
       <c r="F27" t="n">
-        <v>385.68</v>
+        <v>385.62</v>
       </c>
       <c r="G27" t="n">
-        <v>187.75</v>
+        <v>187.71</v>
       </c>
       <c r="H27" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1385,16 +1385,16 @@
         <v>0.7414250516650996</v>
       </c>
       <c r="E28" t="n">
-        <v>16160.44</v>
+        <v>16157.59</v>
       </c>
       <c r="F28" t="n">
-        <v>390.06</v>
+        <v>389.99</v>
       </c>
       <c r="G28" t="n">
-        <v>183.37</v>
+        <v>183.34</v>
       </c>
       <c r="H28" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1419,16 +1419,16 @@
         <v>0.7339074955011891</v>
       </c>
       <c r="E29" t="n">
-        <v>15770.38</v>
+        <v>15767.59</v>
       </c>
       <c r="F29" t="n">
-        <v>411.89</v>
+        <v>411.82</v>
       </c>
       <c r="G29" t="n">
-        <v>161.54</v>
+        <v>161.51</v>
       </c>
       <c r="H29" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-27</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1453,16 +1453,16 @@
         <v>0.7256733652653247</v>
       </c>
       <c r="E30" t="n">
-        <v>15358.49</v>
+        <v>15355.77</v>
       </c>
       <c r="F30" t="n">
-        <v>399.16</v>
+        <v>399.09</v>
       </c>
       <c r="G30" t="n">
-        <v>174.27</v>
+        <v>174.24</v>
       </c>
       <c r="H30" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1477,26 +1477,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-05-25</t>
+          <t>2026-05-27</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7175316184717289</v>
+        <v>0.7177928241184315</v>
       </c>
       <c r="E31" t="n">
-        <v>14959.34</v>
+        <v>14956.68</v>
       </c>
       <c r="F31" t="n">
-        <v>403.69</v>
+        <v>409.13</v>
       </c>
       <c r="G31" t="n">
-        <v>169.74</v>
+        <v>164.21</v>
       </c>
       <c r="H31" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-06-24</t>
+          <t>2026-06-27</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1521,16 +1521,16 @@
         <v>0.7097394936477787</v>
       </c>
       <c r="E32" t="n">
-        <v>14555.65</v>
+        <v>14547.55</v>
       </c>
       <c r="F32" t="n">
-        <v>413.62</v>
+        <v>408.26</v>
       </c>
       <c r="G32" t="n">
-        <v>159.8</v>
+        <v>165.07</v>
       </c>
       <c r="H32" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-07-24</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1555,16 +1555,16 @@
         <v>0.7020319883830354</v>
       </c>
       <c r="E33" t="n">
-        <v>14142.03</v>
+        <v>14139.29</v>
       </c>
       <c r="F33" t="n">
-        <v>418.16</v>
+        <v>418.1</v>
       </c>
       <c r="G33" t="n">
-        <v>155.26</v>
+        <v>155.23</v>
       </c>
       <c r="H33" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-27</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1589,16 +1589,16 @@
         <v>0.6941554877919885</v>
       </c>
       <c r="E34" t="n">
-        <v>13723.86</v>
+        <v>13721.19</v>
       </c>
       <c r="F34" t="n">
-        <v>417.71</v>
+        <v>417.64</v>
       </c>
       <c r="G34" t="n">
-        <v>155.72</v>
+        <v>155.69</v>
       </c>
       <c r="H34" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1613,26 +1613,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-09-24</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6863673581905653</v>
+        <v>0.6861175883076023</v>
       </c>
       <c r="E35" t="n">
-        <v>13306.16</v>
+        <v>13303.55</v>
       </c>
       <c r="F35" t="n">
-        <v>422.44</v>
+        <v>417.48</v>
       </c>
       <c r="G35" t="n">
-        <v>150.98</v>
+        <v>155.85</v>
       </c>
       <c r="H35" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2026-10-27</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1657,16 +1657,16 @@
         <v>0.6789136655693299</v>
       </c>
       <c r="E36" t="n">
-        <v>12883.71</v>
+        <v>12886.07</v>
       </c>
       <c r="F36" t="n">
-        <v>431.98</v>
+        <v>436.6</v>
       </c>
       <c r="G36" t="n">
-        <v>141.45</v>
+        <v>136.73</v>
       </c>
       <c r="H36" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1691,16 +1691,16 @@
         <v>0.671296542736447</v>
       </c>
       <c r="E37" t="n">
-        <v>12451.73</v>
+        <v>12449.47</v>
       </c>
       <c r="F37" t="n">
-        <v>432.14</v>
+        <v>432.07</v>
       </c>
       <c r="G37" t="n">
-        <v>141.29</v>
+        <v>141.26</v>
       </c>
       <c r="H37" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1715,26 +1715,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-12-24</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6640065135304454</v>
+        <v>0.66376488078496</v>
       </c>
       <c r="E38" t="n">
-        <v>12019.59</v>
+        <v>12017.4</v>
       </c>
       <c r="F38" t="n">
-        <v>441.47</v>
+        <v>436.97</v>
       </c>
       <c r="G38" t="n">
-        <v>131.96</v>
+        <v>136.36</v>
       </c>
       <c r="H38" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1749,26 +1749,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2027-01-25</t>
+          <t>2027-01-27</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6563177208800948</v>
+        <v>0.6565566426088543</v>
       </c>
       <c r="E39" t="n">
-        <v>11578.12</v>
+        <v>11580.43</v>
       </c>
       <c r="F39" t="n">
-        <v>437.79</v>
+        <v>446.19</v>
       </c>
       <c r="G39" t="n">
-        <v>135.64</v>
+        <v>127.14</v>
       </c>
       <c r="H39" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2027-02-24</t>
+          <t>2027-02-27</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1793,16 +1793,16 @@
         <v>0.6491903560732858</v>
       </c>
       <c r="E40" t="n">
-        <v>11140.33</v>
+        <v>11134.24</v>
       </c>
       <c r="F40" t="n">
-        <v>451.12</v>
+        <v>446.99</v>
       </c>
       <c r="G40" t="n">
-        <v>122.31</v>
+        <v>126.34</v>
       </c>
       <c r="H40" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2027-03-24</t>
+          <t>2027-03-27</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1827,16 +1827,16 @@
         <v>0.6426079982855503</v>
       </c>
       <c r="E41" t="n">
-        <v>10689.21</v>
+        <v>10687.24</v>
       </c>
       <c r="F41" t="n">
-        <v>463.94</v>
+        <v>463.86</v>
       </c>
       <c r="G41" t="n">
-        <v>109.49</v>
+        <v>109.47</v>
       </c>
       <c r="H41" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2027-04-24</t>
+          <t>2027-04-27</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1861,16 +1861,16 @@
         <v>0.6353982096120091</v>
       </c>
       <c r="E42" t="n">
-        <v>10225.28</v>
+        <v>10223.38</v>
       </c>
       <c r="F42" t="n">
-        <v>457.4</v>
+        <v>457.33</v>
       </c>
       <c r="G42" t="n">
-        <v>116.03</v>
+        <v>116</v>
       </c>
       <c r="H42" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2027-05-24</t>
+          <t>2027-05-27</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1895,16 +1895,16 @@
         <v>0.6284980228679649</v>
       </c>
       <c r="E43" t="n">
-        <v>9767.870000000001</v>
+        <v>9766.049999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>466.19</v>
+        <v>466.11</v>
       </c>
       <c r="G43" t="n">
-        <v>107.24</v>
+        <v>107.22</v>
       </c>
       <c r="H43" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1919,26 +1919,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2027-06-24</t>
+          <t>2027-06-28</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6214465421227736</v>
+        <v>0.6212203970005712</v>
       </c>
       <c r="E44" t="n">
-        <v>9301.690000000001</v>
+        <v>9299.940000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>467.88</v>
+        <v>464.38</v>
       </c>
       <c r="G44" t="n">
-        <v>105.55</v>
+        <v>108.95</v>
       </c>
       <c r="H44" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2027-07-24</t>
+          <t>2027-07-27</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1963,16 +1963,16 @@
         <v>0.6146978652659312</v>
       </c>
       <c r="E45" t="n">
-        <v>8833.799999999999</v>
+        <v>8835.549999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>476.44</v>
+        <v>479.58</v>
       </c>
       <c r="G45" t="n">
-        <v>96.98999999999999</v>
+        <v>93.75</v>
       </c>
       <c r="H45" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2027-08-24</t>
+          <t>2027-08-27</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1997,16 +1997,16 @@
         <v>0.6078012164248522</v>
       </c>
       <c r="E46" t="n">
-        <v>8357.360000000001</v>
+        <v>8355.98</v>
       </c>
       <c r="F46" t="n">
-        <v>478.6</v>
+        <v>478.52</v>
       </c>
       <c r="G46" t="n">
-        <v>94.83</v>
+        <v>94.81</v>
       </c>
       <c r="H46" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2027-09-24</t>
+          <t>2027-09-27</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2031,16 +2031,16 @@
         <v>0.6009819450531361</v>
       </c>
       <c r="E47" t="n">
-        <v>7878.76</v>
+        <v>7877.46</v>
       </c>
       <c r="F47" t="n">
-        <v>484.03</v>
+        <v>483.95</v>
       </c>
       <c r="G47" t="n">
-        <v>89.40000000000001</v>
+        <v>89.38</v>
       </c>
       <c r="H47" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2055,26 +2055,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2027-10-25</t>
+          <t>2027-10-27</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5942391830084572</v>
+        <v>0.5944555060611254</v>
       </c>
       <c r="E48" t="n">
-        <v>7394.73</v>
+        <v>7393.51</v>
       </c>
       <c r="F48" t="n">
-        <v>489.52</v>
+        <v>492.16</v>
       </c>
       <c r="G48" t="n">
-        <v>83.91</v>
+        <v>81.17</v>
       </c>
       <c r="H48" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2027-11-24</t>
+          <t>2027-11-27</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2099,16 +2099,16 @@
         <v>0.5877859678886187</v>
       </c>
       <c r="E49" t="n">
-        <v>6905.21</v>
+        <v>6901.35</v>
       </c>
       <c r="F49" t="n">
-        <v>497.62</v>
+        <v>495.02</v>
       </c>
       <c r="G49" t="n">
-        <v>75.81</v>
+        <v>78.31</v>
       </c>
       <c r="H49" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2027-12-24</t>
+          <t>2027-12-27</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2133,16 +2133,16 @@
         <v>0.5814028322697178</v>
       </c>
       <c r="E50" t="n">
-        <v>6407.59</v>
+        <v>6406.32</v>
       </c>
       <c r="F50" t="n">
-        <v>503.08</v>
+        <v>503</v>
       </c>
       <c r="G50" t="n">
-        <v>70.34999999999999</v>
+        <v>70.33</v>
       </c>
       <c r="H50" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2028-01-24</t>
+          <t>2028-01-27</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2167,16 +2167,16 @@
         <v>0.5748797395506007</v>
       </c>
       <c r="E51" t="n">
-        <v>5904.51</v>
+        <v>5903.33</v>
       </c>
       <c r="F51" t="n">
-        <v>506.43</v>
+        <v>506.35</v>
       </c>
       <c r="G51" t="n">
-        <v>67</v>
+        <v>66.98</v>
       </c>
       <c r="H51" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2191,26 +2191,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2028-02-24</t>
+          <t>2028-02-28</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5684298331598956</v>
+        <v>0.5682229808799805</v>
       </c>
       <c r="E52" t="n">
-        <v>5398.08</v>
+        <v>5396.98</v>
       </c>
       <c r="F52" t="n">
-        <v>512.1799999999999</v>
+        <v>510.11</v>
       </c>
       <c r="G52" t="n">
-        <v>61.25</v>
+        <v>63.23</v>
       </c>
       <c r="H52" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2028-03-24</t>
+          <t>2028-03-27</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2235,16 +2235,16 @@
         <v>0.5624615783446917</v>
       </c>
       <c r="E53" t="n">
-        <v>4885.91</v>
+        <v>4886.87</v>
       </c>
       <c r="F53" t="n">
-        <v>521.58</v>
+        <v>523.28</v>
       </c>
       <c r="G53" t="n">
-        <v>51.84</v>
+        <v>50.06</v>
       </c>
       <c r="H53" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2028-04-24</t>
+          <t>2028-04-27</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2269,16 +2269,16 @@
         <v>0.5561509984457941</v>
       </c>
       <c r="E54" t="n">
-        <v>4364.32</v>
+        <v>4363.59</v>
       </c>
       <c r="F54" t="n">
-        <v>523.91</v>
+        <v>523.8200000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>49.52</v>
+        <v>49.51</v>
       </c>
       <c r="H54" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2028-05-24</t>
+          <t>2028-05-27</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2303,16 +2303,16 @@
         <v>0.55011140675493</v>
       </c>
       <c r="E55" t="n">
-        <v>3840.42</v>
+        <v>3839.78</v>
       </c>
       <c r="F55" t="n">
-        <v>531.26</v>
+        <v>531.1799999999999</v>
       </c>
       <c r="G55" t="n">
         <v>42.16</v>
       </c>
       <c r="H55" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2028-06-24</t>
+          <t>2028-06-27</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2337,16 +2337,16 @@
         <v>0.5439393905332379</v>
       </c>
       <c r="E56" t="n">
-        <v>3309.15</v>
+        <v>3308.6</v>
       </c>
       <c r="F56" t="n">
-        <v>535.88</v>
+        <v>535.79</v>
       </c>
       <c r="G56" t="n">
-        <v>37.55</v>
+        <v>37.54</v>
       </c>
       <c r="H56" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2028-07-24</t>
+          <t>2028-07-27</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2371,16 +2371,16 @@
         <v>0.5380324123338301</v>
       </c>
       <c r="E57" t="n">
-        <v>2773.27</v>
+        <v>2772.81</v>
       </c>
       <c r="F57" t="n">
-        <v>542.98</v>
+        <v>542.89</v>
       </c>
       <c r="G57" t="n">
-        <v>30.45</v>
+        <v>30.44</v>
       </c>
       <c r="H57" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2395,26 +2395,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2028-08-24</t>
+          <t>2028-08-28</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5319959172967441</v>
+        <v>0.5318023233613474</v>
       </c>
       <c r="E58" t="n">
-        <v>2230.29</v>
+        <v>2229.92</v>
       </c>
       <c r="F58" t="n">
-        <v>548.12</v>
+        <v>547.21</v>
       </c>
       <c r="G58" t="n">
-        <v>25.31</v>
+        <v>26.12</v>
       </c>
       <c r="H58" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2429,26 +2429,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2028-09-25</t>
+          <t>2028-09-27</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D59" t="n">
-        <v>0.525835727275144</v>
+        <v>0.5260271491688507</v>
       </c>
       <c r="E59" t="n">
-        <v>1682.17</v>
+        <v>1682.71</v>
       </c>
       <c r="F59" t="n">
-        <v>553.72</v>
+        <v>554.86</v>
       </c>
       <c r="G59" t="n">
-        <v>19.71</v>
+        <v>18.47</v>
       </c>
       <c r="H59" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2028-10-24</t>
+          <t>2028-10-27</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2473,16 +2473,16 @@
         <v>0.5203146912065932</v>
       </c>
       <c r="E60" t="n">
-        <v>1128.45</v>
+        <v>1127.85</v>
       </c>
       <c r="F60" t="n">
-        <v>561.45</v>
+        <v>560.95</v>
       </c>
       <c r="G60" t="n">
-        <v>11.97</v>
+        <v>12.38</v>
       </c>
       <c r="H60" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2028-11-24</t>
+          <t>2028-11-27</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2507,16 +2507,16 @@
         <v>0.5144769814716588</v>
       </c>
       <c r="E61" t="n">
-        <v>566.99</v>
+        <v>566.9</v>
       </c>
       <c r="F61" t="n">
-        <v>566.99</v>
+        <v>566.9</v>
       </c>
       <c r="G61" t="n">
         <v>6.43</v>
       </c>
       <c r="H61" t="n">
-        <v>573.4299999999999</v>
+        <v>573.33</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>

--- a/Algoritmos/Prestamo_Ejemplo.xlsx
+++ b/Algoritmos/Prestamo_Ejemplo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -491,26 +491,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9895004546435813</v>
+        <v>0.9931484776517125</v>
       </c>
       <c r="E2" t="n">
-        <v>25000</v>
+        <v>14985000</v>
       </c>
       <c r="F2" t="n">
-        <v>308.06</v>
+        <v>203258.95</v>
       </c>
       <c r="G2" t="n">
-        <v>265.27</v>
+        <v>103378.36</v>
       </c>
       <c r="H2" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -525,26 +525,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>0.978398680016769</v>
+        <v>0.9865699650549445</v>
       </c>
       <c r="E3" t="n">
-        <v>24691.94</v>
+        <v>14781741.05</v>
       </c>
       <c r="F3" t="n">
-        <v>293.16</v>
+        <v>208071.7</v>
       </c>
       <c r="G3" t="n">
-        <v>280.18</v>
+        <v>98565.61</v>
       </c>
       <c r="H3" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -559,26 +559,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>0.967421462583727</v>
+        <v>0.9795859413971353</v>
       </c>
       <c r="E4" t="n">
-        <v>24398.78</v>
+        <v>14573669.34</v>
       </c>
       <c r="F4" t="n">
-        <v>296.48</v>
+        <v>202733.36</v>
       </c>
       <c r="G4" t="n">
-        <v>276.85</v>
+        <v>103903.95</v>
       </c>
       <c r="H4" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -593,26 +593,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>120</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9572639770585561</v>
+        <v>0.9728742864275847</v>
       </c>
       <c r="E5" t="n">
-        <v>24102.3</v>
+        <v>14370935.98</v>
       </c>
       <c r="F5" t="n">
-        <v>317.58</v>
+        <v>207495.25</v>
       </c>
       <c r="G5" t="n">
-        <v>255.75</v>
+        <v>99142.06</v>
       </c>
       <c r="H5" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -627,26 +627,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-04-27</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>151</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9465238820118106</v>
+        <v>0.9659872157958468</v>
       </c>
       <c r="E6" t="n">
-        <v>23784.72</v>
+        <v>14163440.73</v>
       </c>
       <c r="F6" t="n">
-        <v>303.45</v>
+        <v>205658.11</v>
       </c>
       <c r="G6" t="n">
-        <v>269.88</v>
+        <v>100979.2</v>
       </c>
       <c r="H6" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -661,26 +661,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>181</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9362449869114179</v>
+        <v>0.9593687327986617</v>
       </c>
       <c r="E7" t="n">
-        <v>23481.27</v>
+        <v>13957782.62</v>
       </c>
       <c r="F7" t="n">
-        <v>315.54</v>
+        <v>210345.51</v>
       </c>
       <c r="G7" t="n">
-        <v>257.8</v>
+        <v>96291.8</v>
       </c>
       <c r="H7" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -695,26 +695,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>212</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9257407160023993</v>
+        <v>0.9525772692798476</v>
       </c>
       <c r="E8" t="n">
-        <v>23165.73</v>
+        <v>13747437.11</v>
       </c>
       <c r="F8" t="n">
-        <v>310.47</v>
+        <v>208624.04</v>
       </c>
       <c r="G8" t="n">
-        <v>262.86</v>
+        <v>98013.27</v>
       </c>
       <c r="H8" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -729,26 +729,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9156875183062926</v>
+        <v>0.945833883184396</v>
       </c>
       <c r="E9" t="n">
-        <v>22855.26</v>
+        <v>13538813.07</v>
       </c>
       <c r="F9" t="n">
-        <v>322.41</v>
+        <v>210111.44</v>
       </c>
       <c r="G9" t="n">
-        <v>250.92</v>
+        <v>96525.88</v>
       </c>
       <c r="H9" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -763,26 +763,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9054138934594166</v>
+        <v>0.9391382341676032</v>
       </c>
       <c r="E10" t="n">
-        <v>22532.85</v>
+        <v>13328701.63</v>
       </c>
       <c r="F10" t="n">
-        <v>317.66</v>
+        <v>211609.44</v>
       </c>
       <c r="G10" t="n">
-        <v>255.68</v>
+        <v>95027.87</v>
       </c>
       <c r="H10" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -797,26 +797,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>304</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8952555343176902</v>
+        <v>0.9327037075680729</v>
       </c>
       <c r="E11" t="n">
-        <v>22215.2</v>
+        <v>13117092.19</v>
       </c>
       <c r="F11" t="n">
-        <v>321.26</v>
+        <v>216145.26</v>
       </c>
       <c r="G11" t="n">
-        <v>252.07</v>
+        <v>90492.06</v>
       </c>
       <c r="H11" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -831,26 +831,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8852111476488823</v>
+        <v>0.9263132672713396</v>
       </c>
       <c r="E12" t="n">
-        <v>21893.94</v>
+        <v>12900946.93</v>
       </c>
       <c r="F12" t="n">
-        <v>324.9</v>
+        <v>217636.4</v>
       </c>
       <c r="G12" t="n">
-        <v>248.43</v>
+        <v>89000.92</v>
       </c>
       <c r="H12" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -865,26 +865,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>365</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8755980858959752</v>
+        <v>0.9197558065718289</v>
       </c>
       <c r="E13" t="n">
-        <v>21569.03</v>
+        <v>12683310.54</v>
       </c>
       <c r="F13" t="n">
-        <v>336.53</v>
+        <v>216210.8</v>
       </c>
       <c r="G13" t="n">
-        <v>236.8</v>
+        <v>90426.50999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -899,26 +899,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8660894183957957</v>
+        <v>0.9132447667672191</v>
       </c>
       <c r="E14" t="n">
-        <v>21232.5</v>
+        <v>12467099.74</v>
       </c>
       <c r="F14" t="n">
-        <v>340.22</v>
+        <v>217752.29</v>
       </c>
       <c r="G14" t="n">
-        <v>233.11</v>
+        <v>88885.02</v>
       </c>
       <c r="H14" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -933,26 +933,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8563722631539011</v>
+        <v>0.9074034539486514</v>
       </c>
       <c r="E15" t="n">
-        <v>20892.28</v>
+        <v>12249347.45</v>
       </c>
       <c r="F15" t="n">
-        <v>336.27</v>
+        <v>227783.45</v>
       </c>
       <c r="G15" t="n">
-        <v>237.06</v>
+        <v>78853.87</v>
       </c>
       <c r="H15" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -967,26 +967,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8467641302646522</v>
+        <v>0.9007734036857695</v>
       </c>
       <c r="E16" t="n">
-        <v>20556.01</v>
+        <v>12021564</v>
       </c>
       <c r="F16" t="n">
-        <v>340.09</v>
+        <v>218153.82</v>
       </c>
       <c r="G16" t="n">
-        <v>233.25</v>
+        <v>88483.49000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1001,26 +1001,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>485</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8381785060096403</v>
+        <v>0.8948067740061955</v>
       </c>
       <c r="E17" t="n">
-        <v>20215.92</v>
+        <v>11803410.17</v>
       </c>
       <c r="F17" t="n">
-        <v>366.26</v>
+        <v>227931.41</v>
       </c>
       <c r="G17" t="n">
-        <v>207.08</v>
+        <v>78705.91</v>
       </c>
       <c r="H17" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1035,26 +1035,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8284729073364833</v>
+        <v>0.8884723508023843</v>
       </c>
       <c r="E18" t="n">
-        <v>19849.66</v>
+        <v>11575478.77</v>
       </c>
       <c r="F18" t="n">
-        <v>340.79</v>
+        <v>224109.16</v>
       </c>
       <c r="G18" t="n">
-        <v>232.54</v>
+        <v>82528.14999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1069,26 +1069,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8197743184693398</v>
+        <v>0.8821827695895936</v>
       </c>
       <c r="E19" t="n">
-        <v>19508.87</v>
+        <v>11351369.6</v>
       </c>
       <c r="F19" t="n">
-        <v>366.32</v>
+        <v>225706.96</v>
       </c>
       <c r="G19" t="n">
-        <v>207.01</v>
+        <v>80930.35000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1103,26 +1103,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>577</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8105767989676703</v>
+        <v>0.8761384746284765</v>
       </c>
       <c r="E20" t="n">
-        <v>19142.55</v>
+        <v>11125662.64</v>
       </c>
       <c r="F20" t="n">
-        <v>356.12</v>
+        <v>229883.71</v>
       </c>
       <c r="G20" t="n">
-        <v>217.21</v>
+        <v>76753.61</v>
       </c>
       <c r="H20" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1137,26 +1137,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>608</v>
       </c>
       <c r="D21" t="n">
-        <v>0.801482471726453</v>
+        <v>0.869936206111229</v>
       </c>
       <c r="E21" t="n">
-        <v>18786.42</v>
+        <v>10895778.93</v>
       </c>
       <c r="F21" t="n">
-        <v>360.17</v>
+        <v>228955.13</v>
       </c>
       <c r="G21" t="n">
-        <v>213.17</v>
+        <v>77682.19</v>
       </c>
       <c r="H21" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1171,26 +1171,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>638</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7927786720566875</v>
+        <v>0.8639758187534736</v>
       </c>
       <c r="E22" t="n">
-        <v>18426.26</v>
+        <v>10666823.81</v>
       </c>
       <c r="F22" t="n">
-        <v>371.03</v>
+        <v>233049.14</v>
       </c>
       <c r="G22" t="n">
-        <v>202.3</v>
+        <v>73588.17</v>
       </c>
       <c r="H22" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1205,26 +1205,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>669</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7838840322363481</v>
+        <v>0.8578596508468079</v>
       </c>
       <c r="E23" t="n">
-        <v>18055.22</v>
+        <v>10433774.66</v>
       </c>
       <c r="F23" t="n">
-        <v>368.46</v>
+        <v>232249.02</v>
       </c>
       <c r="G23" t="n">
-        <v>204.87</v>
+        <v>74388.3</v>
       </c>
       <c r="H23" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1239,26 +1239,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>699</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7753713450328257</v>
+        <v>0.851982006277337</v>
       </c>
       <c r="E24" t="n">
-        <v>17686.76</v>
+        <v>10201525.65</v>
       </c>
       <c r="F24" t="n">
-        <v>379.15</v>
+        <v>236259.14</v>
       </c>
       <c r="G24" t="n">
-        <v>194.18</v>
+        <v>70378.17999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1273,26 +1273,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>730</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7666720080246955</v>
+        <v>0.8459507437225953</v>
       </c>
       <c r="E25" t="n">
-        <v>17307.61</v>
+        <v>9965266.51</v>
       </c>
       <c r="F25" t="n">
-        <v>376.95</v>
+        <v>235589.28</v>
       </c>
       <c r="G25" t="n">
-        <v>196.39</v>
+        <v>71048.03999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1307,26 +1307,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7583462369621171</v>
+        <v>0.8399621770554854</v>
       </c>
       <c r="E26" t="n">
-        <v>16930.66</v>
+        <v>9729677.23</v>
       </c>
       <c r="F26" t="n">
-        <v>387.45</v>
+        <v>237268.93</v>
       </c>
       <c r="G26" t="n">
-        <v>185.88</v>
+        <v>69368.39</v>
       </c>
       <c r="H26" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1341,26 +1341,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7498379144319601</v>
+        <v>0.8345895956726052</v>
       </c>
       <c r="E27" t="n">
-        <v>16543.21</v>
+        <v>9492408.310000001</v>
       </c>
       <c r="F27" t="n">
-        <v>385.62</v>
+        <v>245530.95</v>
       </c>
       <c r="G27" t="n">
-        <v>187.71</v>
+        <v>61106.36</v>
       </c>
       <c r="H27" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1375,26 +1375,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-04-13</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7414250516650996</v>
+        <v>0.8286814556651052</v>
       </c>
       <c r="E28" t="n">
-        <v>16157.59</v>
+        <v>9246877.359999999</v>
       </c>
       <c r="F28" t="n">
-        <v>389.99</v>
+        <v>240711.08</v>
       </c>
       <c r="G28" t="n">
-        <v>183.34</v>
+        <v>65926.23</v>
       </c>
       <c r="H28" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1409,26 +1409,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-05-13</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>850</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7339074955011891</v>
+        <v>0.8230037261520045</v>
       </c>
       <c r="E29" t="n">
-        <v>15767.59</v>
+        <v>9006166.279999999</v>
       </c>
       <c r="F29" t="n">
-        <v>411.82</v>
+        <v>244505.67</v>
       </c>
       <c r="G29" t="n">
-        <v>161.51</v>
+        <v>62131.65</v>
       </c>
       <c r="H29" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1443,26 +1443,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-04-27</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>881</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7256733652653247</v>
+        <v>0.8171776036290158</v>
       </c>
       <c r="E30" t="n">
-        <v>15355.77</v>
+        <v>8761660.609999999</v>
       </c>
       <c r="F30" t="n">
-        <v>399.09</v>
+        <v>244170.47</v>
       </c>
       <c r="G30" t="n">
-        <v>174.24</v>
+        <v>62466.85</v>
       </c>
       <c r="H30" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1477,26 +1477,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-05-27</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>911</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7177928241184315</v>
+        <v>0.8115786930152317</v>
       </c>
       <c r="E31" t="n">
-        <v>14956.68</v>
+        <v>8517490.140000001</v>
       </c>
       <c r="F31" t="n">
-        <v>409.13</v>
+        <v>247876.94</v>
       </c>
       <c r="G31" t="n">
-        <v>164.21</v>
+        <v>58760.37</v>
       </c>
       <c r="H31" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1511,26 +1511,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-06-27</t>
+          <t>2026-08-13</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>942</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7097394936477787</v>
+        <v>0.805833449400526</v>
       </c>
       <c r="E32" t="n">
-        <v>14547.55</v>
+        <v>8269613.2</v>
       </c>
       <c r="F32" t="n">
-        <v>408.26</v>
+        <v>247678.55</v>
       </c>
       <c r="G32" t="n">
-        <v>165.07</v>
+        <v>58958.76</v>
       </c>
       <c r="H32" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1545,26 +1545,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7020319883830354</v>
+        <v>0.7999455323446811</v>
       </c>
       <c r="E33" t="n">
-        <v>14139.29</v>
+        <v>8021934.65</v>
       </c>
       <c r="F33" t="n">
-        <v>418.1</v>
+        <v>247592.69</v>
       </c>
       <c r="G33" t="n">
-        <v>155.23</v>
+        <v>59044.63</v>
       </c>
       <c r="H33" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1579,26 +1579,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-08-27</t>
+          <t>2026-10-13</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>1003</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6941554877919885</v>
+        <v>0.7946467760361573</v>
       </c>
       <c r="E34" t="n">
-        <v>13721.19</v>
+        <v>7774341.96</v>
       </c>
       <c r="F34" t="n">
-        <v>417.64</v>
+        <v>254797.5</v>
       </c>
       <c r="G34" t="n">
-        <v>155.69</v>
+        <v>51839.82</v>
       </c>
       <c r="H34" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1613,26 +1613,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-09-28</t>
+          <t>2026-11-13</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6861175883076023</v>
+        <v>0.7890213950900332</v>
       </c>
       <c r="E35" t="n">
-        <v>13303.55</v>
+        <v>7519544.46</v>
       </c>
       <c r="F35" t="n">
-        <v>417.48</v>
+        <v>253026.22</v>
       </c>
       <c r="G35" t="n">
-        <v>155.85</v>
+        <v>53611.1</v>
       </c>
       <c r="H35" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1647,26 +1647,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-10-27</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6789136655693299</v>
+        <v>0.7834358367566012</v>
       </c>
       <c r="E36" t="n">
-        <v>12886.07</v>
+        <v>7266518.25</v>
       </c>
       <c r="F36" t="n">
-        <v>436.6</v>
+        <v>254830.18</v>
       </c>
       <c r="G36" t="n">
-        <v>136.73</v>
+        <v>51807.13</v>
       </c>
       <c r="H36" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1681,26 +1681,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-11-27</t>
+          <t>2027-01-13</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>1095</v>
       </c>
       <c r="D37" t="n">
-        <v>0.671296542736447</v>
+        <v>0.7780681086126141</v>
       </c>
       <c r="E37" t="n">
-        <v>12449.47</v>
+        <v>7011688.06</v>
       </c>
       <c r="F37" t="n">
-        <v>432.07</v>
+        <v>258265.15</v>
       </c>
       <c r="G37" t="n">
-        <v>141.26</v>
+        <v>48372.16</v>
       </c>
       <c r="H37" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1715,26 +1715,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-12-28</t>
+          <t>2027-02-13</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1126</v>
       </c>
       <c r="D38" t="n">
-        <v>0.66376488078496</v>
+        <v>0.7725600896474972</v>
       </c>
       <c r="E38" t="n">
-        <v>12017.4</v>
+        <v>6753422.91</v>
       </c>
       <c r="F38" t="n">
-        <v>436.97</v>
+        <v>258488.33</v>
       </c>
       <c r="G38" t="n">
-        <v>136.36</v>
+        <v>48148.98</v>
       </c>
       <c r="H38" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1749,26 +1749,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2027-01-27</t>
+          <t>2027-03-13</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6565566426088543</v>
+        <v>0.7676186267243134</v>
       </c>
       <c r="E39" t="n">
-        <v>11580.43</v>
+        <v>6494934.58</v>
       </c>
       <c r="F39" t="n">
-        <v>446.19</v>
+        <v>264826.87</v>
       </c>
       <c r="G39" t="n">
-        <v>127.14</v>
+        <v>41810.45</v>
       </c>
       <c r="H39" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1783,26 +1783,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2027-02-27</t>
+          <t>2027-04-13</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6491903560732858</v>
+        <v>0.7621845806463761</v>
       </c>
       <c r="E40" t="n">
-        <v>11134.24</v>
+        <v>6230107.71</v>
       </c>
       <c r="F40" t="n">
-        <v>446.99</v>
+        <v>262219.34</v>
       </c>
       <c r="G40" t="n">
-        <v>126.34</v>
+        <v>44417.97</v>
       </c>
       <c r="H40" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1817,26 +1817,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2027-03-27</t>
+          <t>2027-05-13</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>1215</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6426079982855503</v>
+        <v>0.7569624559585574</v>
       </c>
       <c r="E41" t="n">
-        <v>10687.24</v>
+        <v>5967888.37</v>
       </c>
       <c r="F41" t="n">
-        <v>463.86</v>
+        <v>265466.11</v>
       </c>
       <c r="G41" t="n">
-        <v>109.47</v>
+        <v>41171.21</v>
       </c>
       <c r="H41" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1851,26 +1851,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2027-04-27</t>
+          <t>2027-06-14</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6353982096120091</v>
+        <v>0.7514316205751562</v>
       </c>
       <c r="E42" t="n">
-        <v>10223.38</v>
+        <v>5702422.26</v>
       </c>
       <c r="F42" t="n">
-        <v>457.33</v>
+        <v>264665.22</v>
       </c>
       <c r="G42" t="n">
-        <v>116</v>
+        <v>41972.09</v>
       </c>
       <c r="H42" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1885,26 +1885,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2027-05-27</t>
+          <t>2027-07-13</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>1276</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6284980228679649</v>
+        <v>0.746454215390735</v>
       </c>
       <c r="E43" t="n">
-        <v>9766.049999999999</v>
+        <v>5437757.04</v>
       </c>
       <c r="F43" t="n">
-        <v>466.11</v>
+        <v>270378</v>
       </c>
       <c r="G43" t="n">
-        <v>107.22</v>
+        <v>36259.32</v>
       </c>
       <c r="H43" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1919,26 +1919,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2027-06-28</t>
+          <t>2027-08-13</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6212203970005712</v>
+        <v>0.7411699942159399</v>
       </c>
       <c r="E44" t="n">
-        <v>9299.940000000001</v>
+        <v>5167379.04</v>
       </c>
       <c r="F44" t="n">
-        <v>464.38</v>
+        <v>269796.14</v>
       </c>
       <c r="G44" t="n">
-        <v>108.95</v>
+        <v>36841.18</v>
       </c>
       <c r="H44" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1953,26 +1953,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2027-07-27</t>
+          <t>2027-09-13</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6146978652659312</v>
+        <v>0.7359231805510071</v>
       </c>
       <c r="E45" t="n">
-        <v>8835.549999999999</v>
+        <v>4897582.9</v>
       </c>
       <c r="F45" t="n">
-        <v>479.58</v>
+        <v>271719.67</v>
       </c>
       <c r="G45" t="n">
-        <v>93.75</v>
+        <v>34917.65</v>
       </c>
       <c r="H45" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1987,26 +1987,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2027-08-27</t>
+          <t>2027-10-13</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>1368</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6078012164248522</v>
+        <v>0.7308809864328392</v>
       </c>
       <c r="E46" t="n">
-        <v>8355.98</v>
+        <v>4625863.23</v>
       </c>
       <c r="F46" t="n">
-        <v>478.52</v>
+        <v>274724.46</v>
       </c>
       <c r="G46" t="n">
-        <v>94.81</v>
+        <v>31912.86</v>
       </c>
       <c r="H46" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2021,26 +2021,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2027-09-27</t>
+          <t>2027-11-13</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>1399</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6009819450531361</v>
+        <v>0.7257070096434631</v>
       </c>
       <c r="E47" t="n">
-        <v>7877.46</v>
+        <v>4351138.78</v>
       </c>
       <c r="F47" t="n">
-        <v>483.95</v>
+        <v>275615.58</v>
       </c>
       <c r="G47" t="n">
-        <v>89.38</v>
+        <v>31021.74</v>
       </c>
       <c r="H47" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2055,26 +2055,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2027-10-27</t>
+          <t>2027-12-13</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>1429</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5944555060611254</v>
+        <v>0.7207348118485821</v>
       </c>
       <c r="E48" t="n">
-        <v>7393.51</v>
+        <v>4075523.2</v>
       </c>
       <c r="F48" t="n">
-        <v>492.16</v>
+        <v>278521.14</v>
       </c>
       <c r="G48" t="n">
-        <v>81.17</v>
+        <v>28116.18</v>
       </c>
       <c r="H48" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2089,26 +2089,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2027-11-27</t>
+          <t>2028-01-13</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>1460</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5877859678886187</v>
+        <v>0.7156326608048121</v>
       </c>
       <c r="E49" t="n">
-        <v>6901.35</v>
+        <v>3797002.06</v>
       </c>
       <c r="F49" t="n">
-        <v>495.02</v>
+        <v>279566.33</v>
       </c>
       <c r="G49" t="n">
-        <v>78.31</v>
+        <v>27070.98</v>
       </c>
       <c r="H49" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2123,26 +2123,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2027-12-27</t>
+          <t>2028-02-14</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5814028322697178</v>
+        <v>0.7104038064399221</v>
       </c>
       <c r="E50" t="n">
-        <v>6406.32</v>
+        <v>3517435.73</v>
       </c>
       <c r="F50" t="n">
-        <v>503</v>
+        <v>280747.59</v>
       </c>
       <c r="G50" t="n">
-        <v>70.33</v>
+        <v>25889.72</v>
       </c>
       <c r="H50" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2157,26 +2157,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2028-01-27</t>
+          <t>2028-03-13</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5748797395506007</v>
+        <v>0.7058599086680177</v>
       </c>
       <c r="E51" t="n">
-        <v>5903.33</v>
+        <v>3236688.14</v>
       </c>
       <c r="F51" t="n">
-        <v>506.35</v>
+        <v>285801.48</v>
       </c>
       <c r="G51" t="n">
-        <v>66.98</v>
+        <v>20835.83</v>
       </c>
       <c r="H51" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2191,26 +2191,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2028-02-28</t>
+          <t>2028-04-13</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5682229808799805</v>
+        <v>0.7008630584943335</v>
       </c>
       <c r="E52" t="n">
-        <v>5396.98</v>
+        <v>2950886.66</v>
       </c>
       <c r="F52" t="n">
-        <v>510.11</v>
+        <v>285598.77</v>
       </c>
       <c r="G52" t="n">
-        <v>63.23</v>
+        <v>21038.54</v>
       </c>
       <c r="H52" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2225,26 +2225,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2028-03-27</t>
+          <t>2028-05-13</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>1581</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5624615783446917</v>
+        <v>0.6960610795859704</v>
       </c>
       <c r="E53" t="n">
-        <v>4886.87</v>
+        <v>2665287.89</v>
       </c>
       <c r="F53" t="n">
-        <v>523.28</v>
+        <v>288250.05</v>
       </c>
       <c r="G53" t="n">
-        <v>50.06</v>
+        <v>18387.26</v>
       </c>
       <c r="H53" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2259,26 +2259,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2028-04-27</t>
+          <t>2028-06-13</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>1612</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5561509984457941</v>
+        <v>0.6911335962656791</v>
       </c>
       <c r="E54" t="n">
-        <v>4363.59</v>
+        <v>2377037.84</v>
       </c>
       <c r="F54" t="n">
-        <v>523.8200000000001</v>
+        <v>289690.06</v>
       </c>
       <c r="G54" t="n">
-        <v>49.51</v>
+        <v>16947.25</v>
       </c>
       <c r="H54" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2293,26 +2293,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2028-05-27</t>
+          <t>2028-07-13</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>1642</v>
       </c>
       <c r="D55" t="n">
-        <v>0.55011140675493</v>
+        <v>0.6863982789852126</v>
       </c>
       <c r="E55" t="n">
-        <v>3839.78</v>
+        <v>2087347.77</v>
       </c>
       <c r="F55" t="n">
-        <v>531.1799999999999</v>
+        <v>292237.14</v>
       </c>
       <c r="G55" t="n">
-        <v>42.16</v>
+        <v>14400.17</v>
       </c>
       <c r="H55" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2327,26 +2327,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2028-06-27</t>
+          <t>2028-08-14</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5439393905332379</v>
+        <v>0.6813830290760085</v>
       </c>
       <c r="E56" t="n">
-        <v>3308.6</v>
+        <v>1795110.63</v>
       </c>
       <c r="F56" t="n">
-        <v>535.79</v>
+        <v>293424.59</v>
       </c>
       <c r="G56" t="n">
-        <v>37.54</v>
+        <v>13212.73</v>
       </c>
       <c r="H56" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2361,26 +2361,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2028-07-27</t>
+          <t>2028-09-13</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5380324123338301</v>
+        <v>0.6767145180245504</v>
       </c>
       <c r="E57" t="n">
-        <v>2772.81</v>
+        <v>1501686.05</v>
       </c>
       <c r="F57" t="n">
-        <v>542.89</v>
+        <v>296277.5</v>
       </c>
       <c r="G57" t="n">
-        <v>30.44</v>
+        <v>10359.82</v>
       </c>
       <c r="H57" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2395,26 +2395,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2028-08-28</t>
+          <t>2028-10-13</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5318023233613474</v>
+        <v>0.6720779933808947</v>
       </c>
       <c r="E58" t="n">
-        <v>2229.92</v>
+        <v>1205408.55</v>
       </c>
       <c r="F58" t="n">
-        <v>547.21</v>
+        <v>298321.45</v>
       </c>
       <c r="G58" t="n">
-        <v>26.12</v>
+        <v>8315.860000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2429,26 +2429,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2028-09-27</t>
+          <t>2028-11-13</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>1765</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5260271491688507</v>
+        <v>0.6673202886342235</v>
       </c>
       <c r="E59" t="n">
-        <v>1682.71</v>
+        <v>907087.1</v>
       </c>
       <c r="F59" t="n">
-        <v>554.86</v>
+        <v>300170.18</v>
       </c>
       <c r="G59" t="n">
-        <v>18.47</v>
+        <v>6467.14</v>
       </c>
       <c r="H59" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2463,26 +2463,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2028-10-27</t>
+          <t>2028-12-13</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>1795</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5203146912065932</v>
+        <v>0.6627481287631806</v>
       </c>
       <c r="E60" t="n">
-        <v>1127.85</v>
+        <v>606916.92</v>
       </c>
       <c r="F60" t="n">
-        <v>560.95</v>
+        <v>302450.32</v>
       </c>
       <c r="G60" t="n">
-        <v>12.38</v>
+        <v>4186.99</v>
       </c>
       <c r="H60" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2497,26 +2497,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2028-11-27</t>
+          <t>2029-01-13</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>1826</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5144769814716588</v>
+        <v>0.6580564710253606</v>
       </c>
       <c r="E61" t="n">
-        <v>566.9</v>
+        <v>304466.6</v>
       </c>
       <c r="F61" t="n">
-        <v>566.9</v>
+        <v>304466.6</v>
       </c>
       <c r="G61" t="n">
-        <v>6.43</v>
+        <v>2170.72</v>
       </c>
       <c r="H61" t="n">
-        <v>573.33</v>
+        <v>306637.31</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
